--- a/application/app-data/covidDataWrapper.xlsx
+++ b/application/app-data/covidDataWrapper.xlsx
@@ -589,30 +589,30 @@
     <t>Fitzgerald, GA</t>
   </si>
   <si>
+    <t>Vidalia, GA</t>
+  </si>
+  <si>
     <t>St. Marys, GA</t>
   </si>
   <si>
-    <t>Vidalia, GA</t>
+    <t>Hinesville, GA</t>
   </si>
   <si>
     <t>Statesboro, GA</t>
   </si>
   <si>
-    <t>Hinesville, GA</t>
-  </si>
-  <si>
     <t>Cedartown, GA</t>
   </si>
   <si>
     <t>Toccoa, GA</t>
   </si>
   <si>
+    <t>Brunswick, GA</t>
+  </si>
+  <si>
     <t>Bainbridge, GA</t>
   </si>
   <si>
-    <t>Brunswick, GA</t>
-  </si>
-  <si>
     <t>Jefferson, GA</t>
   </si>
   <si>
@@ -628,16 +628,16 @@
     <t>Chattanooga, TN-GA</t>
   </si>
   <si>
+    <t>Rome, GA</t>
+  </si>
+  <si>
     <t>Dalton, GA</t>
   </si>
   <si>
-    <t>Rome, GA</t>
+    <t>LaGrange, GA-AL</t>
   </si>
   <si>
     <t>Douglas, GA</t>
-  </si>
-  <si>
-    <t>LaGrange, GA-AL</t>
   </si>
   <si>
     <t>Cordele, GA</t>
@@ -1125,19 +1125,19 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -1169,20 +1169,20 @@
         <v>8265</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
       <c r="H3">
         <v>1</v>
       </c>
@@ -1193,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="N3">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="P3">
         <v>12.1</v>
@@ -1219,7 +1219,7 @@
         <v>11228</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="N4">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
         <v>17.8</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>7.2</v>
@@ -1319,46 +1319,46 @@
         <v>45286</v>
       </c>
       <c r="C6">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
       <c r="G6">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>-4</v>
+        <v>-23</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M6">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O6">
-        <v>-8.800000000000001</v>
+        <v>-50.8</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1369,19 +1369,19 @@
         <v>18510</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1393,19 +1393,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="N7">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="O7">
-        <v>21.6</v>
+        <v>54</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1419,43 +1419,43 @@
         <v>76887</v>
       </c>
       <c r="C8">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>13</v>
+        <v>33.8</v>
       </c>
       <c r="P8">
         <v>1.3</v>
@@ -1469,7 +1469,7 @@
         <v>103620</v>
       </c>
       <c r="C9">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D9">
         <v>31</v>
@@ -1481,19 +1481,19 @@
         <v>9</v>
       </c>
       <c r="G9">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
       <c r="K9">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="L9">
         <v>-3</v>
@@ -1505,7 +1505,7 @@
         <v>3.1</v>
       </c>
       <c r="O9">
-        <v>21.2</v>
+        <v>3.9</v>
       </c>
       <c r="P9">
         <v>-2.9</v>
@@ -1519,13 +1519,13 @@
         <v>17154</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1537,25 +1537,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="N10">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O10">
-        <v>-17.5</v>
+        <v>-29.1</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>0.9</v>
       </c>
       <c r="O11">
-        <v>-5.3</v>
+        <v>-15.8</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1619,46 +1619,46 @@
         <v>153490</v>
       </c>
       <c r="C12">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>126</v>
+      </c>
+      <c r="F12">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>121</v>
-      </c>
-      <c r="F12">
-        <v>9</v>
-      </c>
       <c r="G12">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0.7</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O12">
-        <v>9.800000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="P12">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1669,19 +1669,19 @@
         <v>12775</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1693,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N13">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O13">
-        <v>47</v>
+        <v>54.8</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1725,13 +1725,13 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1743,19 +1743,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="N14">
         <v>1.2</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>-5.4</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1837,13 +1837,13 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1855,7 +1855,7 @@
         <v>1.5</v>
       </c>
       <c r="O16">
-        <v>-25.1</v>
+        <v>-22.3</v>
       </c>
       <c r="P16">
         <v>2.8</v>
@@ -1869,31 +1869,31 @@
         <v>74782</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>-1</v>
@@ -1902,10 +1902,10 @@
         <v>0.2</v>
       </c>
       <c r="N17">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O17">
-        <v>-2.7</v>
+        <v>1.3</v>
       </c>
       <c r="P17">
         <v>-1.3</v>
@@ -1925,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>-18</v>
+        <v>-9</v>
       </c>
       <c r="L18">
         <v>-1</v>
@@ -1955,7 +1955,7 @@
         <v>3.8</v>
       </c>
       <c r="O18">
-        <v>-79.8</v>
+        <v>-39.9</v>
       </c>
       <c r="P18">
         <v>-4.4</v>
@@ -1969,43 +1969,43 @@
         <v>23750</v>
       </c>
       <c r="C19">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D19">
         <v>16</v>
       </c>
       <c r="E19">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F19">
         <v>16</v>
       </c>
       <c r="G19">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H19">
         <v>14</v>
       </c>
       <c r="I19">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
       <c r="K19">
-        <v>-57</v>
+        <v>-58</v>
       </c>
       <c r="L19">
         <v>12</v>
       </c>
       <c r="M19">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="N19">
         <v>6.4</v>
       </c>
       <c r="O19">
-        <v>-240</v>
+        <v>-244.2</v>
       </c>
       <c r="P19">
         <v>50.5</v>
@@ -2031,31 +2031,31 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N20">
         <v>16</v>
       </c>
       <c r="O20">
-        <v>-124.5</v>
+        <v>-155.6</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2069,43 +2069,43 @@
         <v>52714</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>6</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>5</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>4</v>
       </c>
       <c r="L21">
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="N21">
         <v>0.6</v>
       </c>
       <c r="O21">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="P21">
         <v>-1.9</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2137,25 +2137,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0.6</v>
       </c>
       <c r="O22">
-        <v>-27.7</v>
+        <v>-18.5</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -2169,46 +2169,46 @@
         <v>116022</v>
       </c>
       <c r="C23">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D23">
         <v>14</v>
       </c>
       <c r="E23">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O23">
-        <v>-3.4</v>
+        <v>3.4</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2219,19 +2219,19 @@
         <v>66299</v>
       </c>
       <c r="C24">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2243,19 +2243,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>-25</v>
+        <v>-22</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N24">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="O24">
-        <v>-37.7</v>
+        <v>-33.2</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="N25">
         <v>0.8</v>
@@ -2325,25 +2325,25 @@
         <v>9</v>
       </c>
       <c r="E26">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F26">
         <v>4</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26">
         <v>3</v>
       </c>
       <c r="I26">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="L26">
         <v>2</v>
@@ -2355,7 +2355,7 @@
         <v>0.8</v>
       </c>
       <c r="O26">
-        <v>-2.1</v>
+        <v>-1.4</v>
       </c>
       <c r="P26">
         <v>0.7</v>
@@ -2469,43 +2469,43 @@
         <v>241910</v>
       </c>
       <c r="C29">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="D29">
         <v>13</v>
       </c>
       <c r="E29">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
       <c r="G29">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H29">
         <v>3</v>
       </c>
       <c r="I29">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="N29">
         <v>2</v>
       </c>
       <c r="O29">
-        <v>5.8</v>
+        <v>12.8</v>
       </c>
       <c r="P29">
         <v>0.4</v>
@@ -2519,19 +2519,19 @@
         <v>124602</v>
       </c>
       <c r="C30">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D30">
         <v>13</v>
       </c>
       <c r="E30">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         <v>0.2</v>
       </c>
       <c r="N30">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="O30">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2569,43 +2569,43 @@
         <v>3001</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="N31">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O31">
-        <v>66.59999999999999</v>
+        <v>166.6</v>
       </c>
       <c r="P31">
         <v>33.3</v>
@@ -2619,46 +2619,46 @@
         <v>278666</v>
       </c>
       <c r="C32">
-        <v>733</v>
+        <v>777</v>
       </c>
       <c r="D32">
         <v>33</v>
       </c>
       <c r="E32">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="F32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G32">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="H32">
         <v>12</v>
       </c>
       <c r="I32">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K32">
-        <v>-26</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M32">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N32">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O32">
-        <v>-9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2669,19 +2669,19 @@
         <v>6743</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2693,19 +2693,19 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N33">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="O33">
-        <v>14.8</v>
+        <v>29.7</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2719,34 +2719,34 @@
         <v>745057</v>
       </c>
       <c r="C34">
-        <v>1679</v>
+        <v>1749</v>
       </c>
       <c r="D34">
         <v>96</v>
       </c>
       <c r="E34">
-        <v>594</v>
+        <v>645</v>
       </c>
       <c r="F34">
         <v>45</v>
       </c>
       <c r="G34">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="H34">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I34">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J34">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K34">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M34">
         <v>0.4</v>
@@ -2755,10 +2755,10 @@
         <v>2.3</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="P34">
-        <v>0.4</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2769,13 +2769,13 @@
         <v>42961</v>
       </c>
       <c r="C35">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D35">
         <v>7</v>
       </c>
       <c r="E35">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -2787,25 +2787,25 @@
         <v>3</v>
       </c>
       <c r="I35">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L35">
         <v>2</v>
       </c>
       <c r="M35">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="N35">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O35">
-        <v>34.9</v>
+        <v>32.6</v>
       </c>
       <c r="P35">
         <v>4.7</v>
@@ -2819,46 +2819,46 @@
         <v>45606</v>
       </c>
       <c r="C36">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>23</v>
+      </c>
+      <c r="H36">
         <v>4</v>
       </c>
-      <c r="G36">
-        <v>22</v>
-      </c>
-      <c r="H36">
+      <c r="I36">
+        <v>45</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>-22</v>
+      </c>
+      <c r="L36">
         <v>3</v>
       </c>
-      <c r="I36">
-        <v>57</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>-35</v>
-      </c>
-      <c r="L36">
-        <v>2</v>
-      </c>
       <c r="M36">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="N36">
         <v>4.1</v>
       </c>
       <c r="O36">
-        <v>-76.7</v>
+        <v>-48.2</v>
       </c>
       <c r="P36">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2869,13 +2869,13 @@
         <v>147295</v>
       </c>
       <c r="C37">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D37">
         <v>4</v>
       </c>
       <c r="E37">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -2887,13 +2887,13 @@
         <v>2</v>
       </c>
       <c r="I37">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37">
-        <v>-21</v>
+        <v>-13</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -2905,7 +2905,7 @@
         <v>1.1</v>
       </c>
       <c r="O37">
-        <v>-14.3</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="P37">
         <v>0.7</v>
@@ -2931,19 +2931,19 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>1.5</v>
       </c>
       <c r="O38">
-        <v>40.7</v>
+        <v>29.1</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2969,31 +2969,31 @@
         <v>140516</v>
       </c>
       <c r="C39">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D39">
         <v>4</v>
       </c>
       <c r="E39">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="L39">
         <v>-1</v>
@@ -3005,7 +3005,7 @@
         <v>1.5</v>
       </c>
       <c r="O39">
-        <v>-7.1</v>
+        <v>-0.7</v>
       </c>
       <c r="P39">
         <v>-0.7</v>
@@ -3019,43 +3019,43 @@
         <v>12344</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>4</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <v>3</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N40">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O40">
-        <v>16.2</v>
+        <v>24.3</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3075,25 +3075,25 @@
         <v>3</v>
       </c>
       <c r="E41">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>7.3</v>
       </c>
       <c r="O41">
-        <v>-78.8</v>
+        <v>-91.90000000000001</v>
       </c>
       <c r="P41">
         <v>4.4</v>
@@ -3169,43 +3169,43 @@
         <v>23861</v>
       </c>
       <c r="C43">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N43">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>29.3</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -3219,43 +3219,43 @@
         <v>26833</v>
       </c>
       <c r="C44">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L44">
         <v>-1</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="N44">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O44">
-        <v>70.8</v>
+        <v>74.5</v>
       </c>
       <c r="P44">
         <v>-3.7</v>
@@ -3269,46 +3269,46 @@
         <v>743187</v>
       </c>
       <c r="C45">
-        <v>2073</v>
+        <v>2148</v>
       </c>
       <c r="D45">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E45">
-        <v>707</v>
+        <v>740</v>
       </c>
       <c r="F45">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G45">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H45">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I45">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="J45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K45">
-        <v>-3</v>
+        <v>-20</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M45">
         <v>0.3</v>
       </c>
       <c r="N45">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O45">
-        <v>-0.4</v>
+        <v>-2.7</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3319,13 +3319,13 @@
         <v>20919</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3337,25 +3337,25 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N46">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="O46">
-        <v>14.3</v>
+        <v>9.6</v>
       </c>
       <c r="P46">
         <v>4.8</v>
@@ -3369,13 +3369,13 @@
         <v>13905</v>
       </c>
       <c r="C47">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D47">
         <v>9</v>
       </c>
       <c r="E47">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F47">
         <v>5</v>
@@ -3387,25 +3387,25 @@
         <v>2</v>
       </c>
       <c r="I47">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J47">
         <v>3</v>
       </c>
       <c r="K47">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="L47">
         <v>-1</v>
       </c>
       <c r="M47">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="N47">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="O47">
-        <v>-100.7</v>
+        <v>-115.1</v>
       </c>
       <c r="P47">
         <v>-7.2</v>
@@ -3419,34 +3419,34 @@
         <v>91049</v>
       </c>
       <c r="C48">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="D48">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E48">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="F48">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G48">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I48">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J48">
         <v>18</v>
       </c>
       <c r="K48">
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M48">
         <v>-0</v>
@@ -3455,10 +3455,10 @@
         <v>16.8</v>
       </c>
       <c r="O48">
-        <v>-15.4</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>-3.3</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3469,31 +3469,31 @@
         <v>141840</v>
       </c>
       <c r="C49">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D49">
         <v>11</v>
       </c>
       <c r="E49">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49">
         <v>5</v>
       </c>
       <c r="G49">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H49">
         <v>3</v>
       </c>
       <c r="I49">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J49">
         <v>2</v>
       </c>
       <c r="K49">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -3502,10 +3502,10 @@
         <v>0.3</v>
       </c>
       <c r="N49">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O49">
-        <v>-0.7</v>
+        <v>8.5</v>
       </c>
       <c r="P49">
         <v>0.7</v>
@@ -3525,37 +3525,37 @@
         <v>20</v>
       </c>
       <c r="E50">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50">
         <v>12</v>
       </c>
       <c r="G50">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H50">
         <v>5</v>
       </c>
       <c r="I50">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J50">
         <v>7</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="L50">
         <v>-2</v>
       </c>
       <c r="M50">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N50">
         <v>20.7</v>
       </c>
       <c r="O50">
-        <v>9.699999999999999</v>
+        <v>-87</v>
       </c>
       <c r="P50">
         <v>-19.3</v>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N52">
         <v>0.6</v>
@@ -3669,25 +3669,25 @@
         <v>19212</v>
       </c>
       <c r="C53">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3699,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="N53">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O53">
         <v>20.8</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="N54">
         <v>0.9</v>
@@ -3819,19 +3819,19 @@
         <v>24925</v>
       </c>
       <c r="C56">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -3843,19 +3843,19 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="N56">
         <v>1.2</v>
       </c>
       <c r="O56">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P56">
         <v>4</v>
@@ -3869,13 +3869,13 @@
         <v>111369</v>
       </c>
       <c r="C57">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D57">
         <v>10</v>
       </c>
       <c r="E57">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -3887,13 +3887,13 @@
         <v>2</v>
       </c>
       <c r="I57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J57">
         <v>3</v>
       </c>
       <c r="K57">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="L57">
         <v>-1</v>
@@ -3905,7 +3905,7 @@
         <v>1.6</v>
       </c>
       <c r="O57">
-        <v>-3.6</v>
+        <v>-4.5</v>
       </c>
       <c r="P57">
         <v>-0.9</v>
@@ -3925,25 +3925,25 @@
         <v>11</v>
       </c>
       <c r="E58">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F58">
         <v>3</v>
       </c>
       <c r="G58">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J58">
         <v>2</v>
       </c>
       <c r="K58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L58">
         <v>-1</v>
@@ -3955,7 +3955,7 @@
         <v>1.5</v>
       </c>
       <c r="O58">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="P58">
         <v>-1</v>
@@ -3969,46 +3969,46 @@
         <v>219880</v>
       </c>
       <c r="C59">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="D59">
         <v>10</v>
       </c>
       <c r="E59">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G59">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H59">
         <v>2</v>
       </c>
       <c r="I59">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
+        <v>0.7</v>
+      </c>
+      <c r="N59">
+        <v>1.5</v>
+      </c>
+      <c r="O59">
+        <v>13.6</v>
+      </c>
+      <c r="P59">
         <v>0.5</v>
-      </c>
-      <c r="N59">
-        <v>1.4</v>
-      </c>
-      <c r="O59">
-        <v>5.5</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4019,13 +4019,13 @@
         <v>22514</v>
       </c>
       <c r="C60">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -4037,25 +4037,25 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="N60">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="O60">
-        <v>-13.3</v>
+        <v>-17.8</v>
       </c>
       <c r="P60">
         <v>4.4</v>
@@ -4069,31 +4069,31 @@
         <v>1021902</v>
       </c>
       <c r="C61">
-        <v>2880</v>
+        <v>2928</v>
       </c>
       <c r="D61">
         <v>122</v>
       </c>
       <c r="E61">
-        <v>843</v>
+        <v>863</v>
       </c>
       <c r="F61">
         <v>48</v>
       </c>
       <c r="G61">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="H61">
         <v>31</v>
       </c>
       <c r="I61">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="J61">
         <v>17</v>
       </c>
       <c r="K61">
-        <v>-83</v>
+        <v>-93</v>
       </c>
       <c r="L61">
         <v>14</v>
@@ -4102,10 +4102,10 @@
         <v>0.3</v>
       </c>
       <c r="N61">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O61">
-        <v>-8.1</v>
+        <v>-9.1</v>
       </c>
       <c r="P61">
         <v>1.4</v>
@@ -4119,43 +4119,43 @@
         <v>29922</v>
       </c>
       <c r="C62">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
       <c r="M62">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="N62">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O62">
-        <v>56.8</v>
+        <v>40.1</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -4219,43 +4219,43 @@
         <v>83974</v>
       </c>
       <c r="C64">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L64">
         <v>-1</v>
       </c>
       <c r="M64">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N64">
         <v>0.7</v>
       </c>
       <c r="O64">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="P64">
         <v>-1.2</v>
@@ -4275,37 +4275,37 @@
         <v>12</v>
       </c>
       <c r="E65">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F65">
         <v>7</v>
       </c>
       <c r="G65">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J65">
         <v>5</v>
       </c>
       <c r="K65">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L65">
         <v>-3</v>
       </c>
       <c r="M65">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="N65">
         <v>2</v>
       </c>
       <c r="O65">
-        <v>31.7</v>
+        <v>15.8</v>
       </c>
       <c r="P65">
         <v>-5.3</v>
@@ -4349,7 +4349,7 @@
         <v>-1</v>
       </c>
       <c r="M66">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N66">
         <v>2.6</v>
@@ -4375,19 +4375,19 @@
         <v>2</v>
       </c>
       <c r="E67">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
       <c r="G67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -4399,7 +4399,7 @@
         <v>1</v>
       </c>
       <c r="M67">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N67">
         <v>3.2</v>
@@ -4419,31 +4419,31 @@
         <v>902298</v>
       </c>
       <c r="C68">
-        <v>1848</v>
+        <v>1934</v>
       </c>
       <c r="D68">
         <v>58</v>
       </c>
       <c r="E68">
-        <v>811</v>
+        <v>875</v>
       </c>
       <c r="F68">
         <v>22</v>
       </c>
       <c r="G68">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="H68">
         <v>12</v>
       </c>
       <c r="I68">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="J68">
         <v>10</v>
       </c>
       <c r="K68">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="L68">
         <v>2</v>
@@ -4452,10 +4452,10 @@
         <v>0.8</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O68">
-        <v>13.4</v>
+        <v>8.1</v>
       </c>
       <c r="P68">
         <v>0.2</v>
@@ -4469,43 +4469,43 @@
         <v>44289</v>
       </c>
       <c r="C69">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="D69">
         <v>8</v>
       </c>
       <c r="E69">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F69">
         <v>6</v>
       </c>
       <c r="G69">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H69">
         <v>5</v>
       </c>
       <c r="I69">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J69">
         <v>1</v>
       </c>
       <c r="K69">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L69">
         <v>4</v>
       </c>
       <c r="M69">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="N69">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O69">
-        <v>155.8</v>
+        <v>173.9</v>
       </c>
       <c r="P69">
         <v>9</v>
@@ -4519,43 +4519,43 @@
         <v>195961</v>
       </c>
       <c r="C70">
-        <v>1482</v>
+        <v>1694</v>
       </c>
       <c r="D70">
         <v>22</v>
       </c>
       <c r="E70">
-        <v>877</v>
+        <v>1087</v>
       </c>
       <c r="F70">
         <v>16</v>
       </c>
       <c r="G70">
-        <v>460</v>
+        <v>662</v>
       </c>
       <c r="H70">
         <v>13</v>
       </c>
       <c r="I70">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="J70">
         <v>3</v>
       </c>
       <c r="K70">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="L70">
         <v>10</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N70">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="O70">
-        <v>21.9</v>
+        <v>120.9</v>
       </c>
       <c r="P70">
         <v>5.1</v>
@@ -4569,19 +4569,19 @@
         <v>8535</v>
       </c>
       <c r="C71">
+        <v>58</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
         <v>51</v>
       </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71">
-        <v>45</v>
-      </c>
       <c r="F71">
         <v>2</v>
       </c>
       <c r="G71">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -4593,19 +4593,19 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L71">
         <v>2</v>
       </c>
       <c r="M71">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N71">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="O71">
-        <v>292.9</v>
+        <v>363.2</v>
       </c>
       <c r="P71">
         <v>23.4</v>
@@ -4675,7 +4675,7 @@
         <v>2</v>
       </c>
       <c r="E73">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4687,25 +4687,25 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="N73">
         <v>1.8</v>
       </c>
       <c r="O73">
-        <v>-38.7</v>
+        <v>-29.8</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="N74">
         <v>0.4</v>
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4787,13 +4787,13 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>0.9</v>
       </c>
       <c r="O75">
-        <v>-17.1</v>
+        <v>0</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4819,31 +4819,31 @@
         <v>221307</v>
       </c>
       <c r="C76">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="D76">
         <v>13</v>
       </c>
       <c r="E76">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F76">
         <v>6</v>
       </c>
       <c r="G76">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H76">
         <v>3</v>
       </c>
       <c r="I76">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="J76">
         <v>3</v>
       </c>
       <c r="K76">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -4852,10 +4852,10 @@
         <v>0.4</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O76">
-        <v>1.8</v>
+        <v>-2.3</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -4869,25 +4869,25 @@
         <v>151682</v>
       </c>
       <c r="C77">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D77">
         <v>14</v>
       </c>
       <c r="E77">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F77">
         <v>4</v>
       </c>
       <c r="G77">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J77">
         <v>3</v>
@@ -4902,7 +4902,7 @@
         <v>0.4</v>
       </c>
       <c r="N77">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O77">
         <v>-6.6</v>
@@ -4919,19 +4919,19 @@
         <v>9268</v>
       </c>
       <c r="C78">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78">
         <v>-1</v>
@@ -4952,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="P78">
         <v>-10.8</v>
@@ -4969,43 +4969,43 @@
         <v>65755</v>
       </c>
       <c r="C79">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D79">
         <v>2</v>
       </c>
       <c r="E79">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
       <c r="G79">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="M79">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="N79">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O79">
-        <v>-4.6</v>
+        <v>13.7</v>
       </c>
       <c r="P79">
         <v>1.5</v>
@@ -5019,7 +5019,7 @@
         <v>13784</v>
       </c>
       <c r="C80">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -5031,31 +5031,31 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="N80">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O80">
-        <v>-29</v>
+        <v>-14.5</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -5081,31 +5081,31 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="K81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L81">
         <v>-1</v>
       </c>
       <c r="M81">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="N81">
         <v>1.3</v>
       </c>
       <c r="O81">
-        <v>33.4</v>
+        <v>20</v>
       </c>
       <c r="P81">
         <v>-6.7</v>
@@ -5119,19 +5119,19 @@
         <v>15772</v>
       </c>
       <c r="C82">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -5143,19 +5143,19 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N82">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>-6.3</v>
+        <v>0</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -5181,19 +5181,19 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -5205,7 +5205,7 @@
         <v>1.8</v>
       </c>
       <c r="O83">
-        <v>-22.7</v>
+        <v>-45.3</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5219,46 +5219,46 @@
         <v>9730</v>
       </c>
       <c r="C84">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>3</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="N84">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="O84">
-        <v>123.3</v>
+        <v>205.5</v>
       </c>
       <c r="P84">
-        <v>10.3</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5281,31 +5281,31 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="N85">
         <v>1</v>
       </c>
       <c r="O85">
-        <v>-10.5</v>
+        <v>-24.5</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -5319,19 +5319,19 @@
         <v>18513</v>
       </c>
       <c r="C86">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="K86">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L86">
         <v>1</v>
@@ -5352,10 +5352,10 @@
         <v>0.6</v>
       </c>
       <c r="N86">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O86">
-        <v>-5.4</v>
+        <v>-10.8</v>
       </c>
       <c r="P86">
         <v>5.4</v>
@@ -5419,7 +5419,7 @@
         <v>47418</v>
       </c>
       <c r="C88">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -5469,43 +5469,43 @@
         <v>29348</v>
       </c>
       <c r="C89">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D89">
         <v>20</v>
       </c>
       <c r="E89">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F89">
         <v>5</v>
       </c>
       <c r="G89">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H89">
         <v>2</v>
       </c>
       <c r="I89">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J89">
         <v>3</v>
       </c>
       <c r="K89">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="L89">
         <v>-1</v>
       </c>
       <c r="M89">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="O89">
-        <v>-10.2</v>
+        <v>3.4</v>
       </c>
       <c r="P89">
         <v>-3.4</v>
@@ -5631,19 +5631,19 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>0.3</v>
       </c>
       <c r="O92">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -5669,13 +5669,13 @@
         <v>114582</v>
       </c>
       <c r="C93">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D93">
         <v>4</v>
       </c>
       <c r="E93">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -5687,25 +5687,25 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J93">
         <v>1</v>
       </c>
       <c r="K93">
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="L93">
         <v>-1</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="N93">
         <v>1.4</v>
       </c>
       <c r="O93">
-        <v>-16.6</v>
+        <v>-13.1</v>
       </c>
       <c r="P93">
         <v>-0.9</v>
@@ -5719,19 +5719,19 @@
         <v>31951</v>
       </c>
       <c r="C94">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
       <c r="E94">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F94">
         <v>2</v>
       </c>
       <c r="G94">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -5743,19 +5743,19 @@
         <v>0</v>
       </c>
       <c r="K94">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="L94">
         <v>2</v>
       </c>
       <c r="M94">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="N94">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O94">
-        <v>31.3</v>
+        <v>84.5</v>
       </c>
       <c r="P94">
         <v>6.3</v>
@@ -5775,25 +5775,25 @@
         <v>4</v>
       </c>
       <c r="E95">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F95">
         <v>2</v>
       </c>
       <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <v>6</v>
       </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>4</v>
-      </c>
       <c r="J95">
         <v>2</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="L95">
         <v>-2</v>
@@ -5805,7 +5805,7 @@
         <v>2.1</v>
       </c>
       <c r="O95">
-        <v>9.300000000000001</v>
+        <v>-18.6</v>
       </c>
       <c r="P95">
         <v>-9.300000000000001</v>
@@ -5875,19 +5875,19 @@
         <v>3</v>
       </c>
       <c r="E97">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F97">
         <v>3</v>
       </c>
       <c r="G97">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J97">
         <v>3</v>
@@ -5899,7 +5899,7 @@
         <v>-3</v>
       </c>
       <c r="M97">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N97">
         <v>6</v>
@@ -5931,19 +5931,19 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -5955,7 +5955,7 @@
         <v>0.8</v>
       </c>
       <c r="O98">
-        <v>-13.8</v>
+        <v>-20.8</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -5981,31 +5981,31 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N99">
         <v>5</v>
       </c>
       <c r="O99">
-        <v>-23.6</v>
+        <v>-94.3</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N100">
         <v>2.6</v>
@@ -6081,31 +6081,31 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="N101">
         <v>5.7</v>
       </c>
       <c r="O101">
-        <v>85.7</v>
+        <v>-51.4</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -6119,34 +6119,34 @@
         <v>22432</v>
       </c>
       <c r="C102">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D102">
         <v>31</v>
       </c>
       <c r="E102">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F102">
         <v>8</v>
       </c>
       <c r="G102">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H102">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I102">
         <v>84</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K102">
-        <v>-53</v>
+        <v>-52</v>
       </c>
       <c r="L102">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M102">
         <v>0.7</v>
@@ -6155,10 +6155,10 @@
         <v>14.2</v>
       </c>
       <c r="O102">
-        <v>-236.3</v>
+        <v>-231.8</v>
       </c>
       <c r="P102">
-        <v>26.7</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6219,19 +6219,19 @@
         <v>9036</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104">
         <v>0</v>
@@ -6252,10 +6252,10 @@
         <v>1.2</v>
       </c>
       <c r="N104">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O104">
-        <v>11.1</v>
+        <v>0</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -6287,25 +6287,25 @@
         <v>0</v>
       </c>
       <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
         <v>3</v>
       </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
-      <c r="K105">
-        <v>2</v>
-      </c>
       <c r="L105">
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N105">
         <v>1.5</v>
       </c>
       <c r="O105">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -6319,43 +6319,43 @@
         <v>39557</v>
       </c>
       <c r="C106">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
       <c r="G106">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L106">
         <v>1</v>
       </c>
       <c r="M106">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N106">
         <v>0.8</v>
       </c>
       <c r="O106">
-        <v>15.2</v>
+        <v>7.6</v>
       </c>
       <c r="P106">
         <v>2.5</v>
@@ -6369,31 +6369,31 @@
         <v>196670</v>
       </c>
       <c r="C107">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D107">
         <v>7</v>
       </c>
       <c r="E107">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F107">
         <v>3</v>
       </c>
       <c r="G107">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H107">
         <v>3</v>
       </c>
       <c r="I107">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="L107">
         <v>3</v>
@@ -6405,7 +6405,7 @@
         <v>1.6</v>
       </c>
       <c r="O107">
-        <v>4.1</v>
+        <v>-1</v>
       </c>
       <c r="P107">
         <v>1.5</v>
@@ -6419,43 +6419,43 @@
         <v>106497</v>
       </c>
       <c r="C108">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D108">
         <v>7</v>
       </c>
       <c r="E108">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F108">
         <v>4</v>
       </c>
       <c r="G108">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J108">
         <v>3</v>
       </c>
       <c r="K108">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="L108">
         <v>-2</v>
       </c>
       <c r="M108">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="N108">
         <v>1.9</v>
       </c>
       <c r="O108">
-        <v>4.7</v>
+        <v>-5.6</v>
       </c>
       <c r="P108">
         <v>-1.9</v>
@@ -6469,19 +6469,19 @@
         <v>37017</v>
       </c>
       <c r="C109">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -6493,19 +6493,19 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
       <c r="M109">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="N109">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O109">
-        <v>21.6</v>
+        <v>16.2</v>
       </c>
       <c r="P109">
         <v>0</v>
@@ -6519,19 +6519,19 @@
         <v>14784</v>
       </c>
       <c r="C110">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D110">
         <v>3</v>
       </c>
       <c r="E110">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="K110">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="L110">
         <v>-1</v>
@@ -6552,10 +6552,10 @@
         <v>1</v>
       </c>
       <c r="N110">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O110">
-        <v>-87.90000000000001</v>
+        <v>-81.2</v>
       </c>
       <c r="P110">
         <v>-6.8</v>
@@ -6569,34 +6569,34 @@
         <v>155840</v>
       </c>
       <c r="C111">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D111">
         <v>8</v>
       </c>
       <c r="E111">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G111">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K111">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M111">
         <v>-0.1</v>
@@ -6605,10 +6605,10 @@
         <v>1.2</v>
       </c>
       <c r="O111">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="P111">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -6619,19 +6619,19 @@
         <v>26966</v>
       </c>
       <c r="C112">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
       <c r="E112">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -6643,19 +6643,19 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L112">
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="N112">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="O112">
-        <v>37.1</v>
+        <v>51.9</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -6669,7 +6669,7 @@
         <v>30832</v>
       </c>
       <c r="C113">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -6681,31 +6681,31 @@
         <v>0</v>
       </c>
       <c r="G113">
+        <v>7</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
         <v>5</v>
       </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>4</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
       <c r="L113">
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="N113">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="O113">
-        <v>3.2</v>
+        <v>16.2</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -6719,31 +6719,31 @@
         <v>19164</v>
       </c>
       <c r="C114">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D114">
         <v>3</v>
       </c>
       <c r="E114">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F114">
         <v>1</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L114">
         <v>1</v>
@@ -6752,10 +6752,10 @@
         <v>-0.1</v>
       </c>
       <c r="N114">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O114">
-        <v>0</v>
+        <v>-5.2</v>
       </c>
       <c r="P114">
         <v>5.2</v>
@@ -6775,7 +6775,7 @@
         <v>2</v>
       </c>
       <c r="E115">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -6787,25 +6787,25 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J115">
         <v>1</v>
       </c>
       <c r="K115">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="L115">
         <v>-1</v>
       </c>
       <c r="M115">
-        <v>0.2</v>
+        <v>-0</v>
       </c>
       <c r="N115">
         <v>2.2</v>
       </c>
       <c r="O115">
-        <v>-38.7</v>
+        <v>-33.2</v>
       </c>
       <c r="P115">
         <v>-5.5</v>
@@ -6831,31 +6831,31 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="L116">
         <v>0</v>
       </c>
       <c r="M116">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="N116">
         <v>1.4</v>
       </c>
       <c r="O116">
-        <v>9.6</v>
+        <v>-4.8</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N117">
         <v>2.7</v>
@@ -6925,7 +6925,7 @@
         <v>5</v>
       </c>
       <c r="E118">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F118">
         <v>4</v>
@@ -6937,25 +6937,25 @@
         <v>2</v>
       </c>
       <c r="I118">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J118">
         <v>2</v>
       </c>
       <c r="K118">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="L118">
         <v>0</v>
       </c>
       <c r="M118">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="N118">
         <v>2</v>
       </c>
       <c r="O118">
-        <v>-14</v>
+        <v>-4.7</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>16457</v>
       </c>
       <c r="C120">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -7043,19 +7043,19 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>0</v>
       </c>
       <c r="M120">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="N120">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="O120">
-        <v>18.2</v>
+        <v>12.2</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -7069,7 +7069,7 @@
         <v>7087</v>
       </c>
       <c r="C121">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D121">
         <v>19</v>
@@ -7078,13 +7078,13 @@
         <v>22</v>
       </c>
       <c r="F121">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G121">
         <v>10</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>12</v>
@@ -7096,19 +7096,19 @@
         <v>-2</v>
       </c>
       <c r="L121">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="M121">
         <v>0.1</v>
       </c>
       <c r="N121">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="O121">
         <v>-28.2</v>
       </c>
       <c r="P121">
-        <v>-70.59999999999999</v>
+        <v>-84.7</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7119,46 +7119,46 @@
         <v>201463</v>
       </c>
       <c r="C122">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D122">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E122">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F122">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G122">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="J122">
         <v>4</v>
       </c>
       <c r="K122">
-        <v>-48</v>
+        <v>-33</v>
       </c>
       <c r="L122">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M122">
         <v>0.4</v>
       </c>
       <c r="N122">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O122">
-        <v>-23.8</v>
+        <v>-16.4</v>
       </c>
       <c r="P122">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7169,13 +7169,13 @@
         <v>89011</v>
       </c>
       <c r="C123">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D123">
         <v>6</v>
       </c>
       <c r="E123">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -7187,25 +7187,25 @@
         <v>0</v>
       </c>
       <c r="I123">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="L123">
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N123">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O123">
-        <v>-9</v>
+        <v>-10.1</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="N126">
         <v>3.6</v>
@@ -7369,31 +7369,31 @@
         <v>64719</v>
       </c>
       <c r="C127">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D127">
         <v>10</v>
       </c>
       <c r="E127">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F127">
         <v>3</v>
       </c>
       <c r="G127">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="J127">
         <v>1</v>
       </c>
       <c r="K127">
-        <v>50</v>
+        <v>-37</v>
       </c>
       <c r="L127">
         <v>1</v>
@@ -7405,7 +7405,7 @@
         <v>3.3</v>
       </c>
       <c r="O127">
-        <v>77.3</v>
+        <v>-57.2</v>
       </c>
       <c r="P127">
         <v>1.5</v>
@@ -7419,19 +7419,19 @@
         <v>25676</v>
       </c>
       <c r="C128">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
       <c r="G128">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -7443,19 +7443,19 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L128">
         <v>0</v>
       </c>
       <c r="M128">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N128">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O128">
-        <v>3.9</v>
+        <v>23.4</v>
       </c>
       <c r="P128">
         <v>0</v>
@@ -7519,43 +7519,43 @@
         <v>30352</v>
       </c>
       <c r="C130">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D130">
         <v>28</v>
       </c>
       <c r="E130">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F130">
         <v>14</v>
       </c>
       <c r="G130">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>7</v>
       </c>
       <c r="I130">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J130">
         <v>7</v>
       </c>
       <c r="K130">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N130">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="O130">
-        <v>-26.4</v>
+        <v>-3.3</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -7719,43 +7719,43 @@
         <v>8193</v>
       </c>
       <c r="C134">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D134">
         <v>2</v>
       </c>
       <c r="E134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F134">
         <v>0</v>
       </c>
       <c r="G134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J134">
         <v>0</v>
       </c>
       <c r="K134">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="L134">
         <v>0</v>
       </c>
       <c r="M134">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="N134">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O134">
-        <v>-12.2</v>
+        <v>-48.8</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -7781,19 +7781,19 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J135">
         <v>0</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>-8</v>
       </c>
       <c r="L135">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>1.7</v>
       </c>
       <c r="O135">
-        <v>12.4</v>
+        <v>-49.6</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -7819,43 +7819,43 @@
         <v>8859</v>
       </c>
       <c r="C136">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D136">
         <v>19</v>
       </c>
       <c r="E136">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F136">
         <v>5</v>
       </c>
       <c r="G136">
+        <v>20</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
         <v>19</v>
-      </c>
-      <c r="H136">
-        <v>2</v>
-      </c>
-      <c r="I136">
-        <v>23</v>
       </c>
       <c r="J136">
         <v>3</v>
       </c>
       <c r="K136">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="L136">
         <v>-1</v>
       </c>
       <c r="M136">
-        <v>-0</v>
+        <v>-0.1</v>
       </c>
       <c r="N136">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="O136">
-        <v>-45.2</v>
+        <v>11.3</v>
       </c>
       <c r="P136">
         <v>-11.3</v>
@@ -7869,19 +7869,19 @@
         <v>44730</v>
       </c>
       <c r="C137">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D137">
         <v>19</v>
       </c>
       <c r="E137">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F137">
         <v>6</v>
       </c>
       <c r="G137">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -7893,19 +7893,19 @@
         <v>3</v>
       </c>
       <c r="K137">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="N137">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O137">
-        <v>-20.1</v>
+        <v>-17.9</v>
       </c>
       <c r="P137">
         <v>0</v>
@@ -7919,43 +7919,43 @@
         <v>40510</v>
       </c>
       <c r="C138">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D138">
         <v>5</v>
       </c>
       <c r="E138">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F138">
         <v>2</v>
       </c>
       <c r="G138">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>2</v>
       </c>
       <c r="I138">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L138">
         <v>2</v>
       </c>
       <c r="M138">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O138">
-        <v>19.7</v>
+        <v>34.6</v>
       </c>
       <c r="P138">
         <v>4.9</v>
@@ -7969,7 +7969,7 @@
         <v>27048</v>
       </c>
       <c r="C139">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -7999,10 +7999,10 @@
         <v>-1</v>
       </c>
       <c r="M139">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="N139">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="O139">
         <v>-7.4</v>
@@ -8019,25 +8019,25 @@
         <v>11417</v>
       </c>
       <c r="C140">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D140">
         <v>1</v>
       </c>
       <c r="E140">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F140">
         <v>1</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -8049,10 +8049,10 @@
         <v>1</v>
       </c>
       <c r="M140">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="N140">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O140">
         <v>-70.09999999999999</v>
@@ -8119,43 +8119,43 @@
         <v>69774</v>
       </c>
       <c r="C142">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D142">
         <v>4</v>
       </c>
       <c r="E142">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="L142">
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O142">
-        <v>-20.1</v>
+        <v>-5.7</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -8169,19 +8169,19 @@
         <v>7962</v>
       </c>
       <c r="C143">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D143">
         <v>8</v>
       </c>
       <c r="E143">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F143">
         <v>6</v>
       </c>
       <c r="G143">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -8193,19 +8193,19 @@
         <v>4</v>
       </c>
       <c r="K143">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="L143">
         <v>-2</v>
       </c>
       <c r="M143">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N143">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O143">
-        <v>-62.8</v>
+        <v>-50.2</v>
       </c>
       <c r="P143">
         <v>-25.1</v>
@@ -8269,43 +8269,43 @@
         <v>22775</v>
       </c>
       <c r="C145">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D145">
         <v>1</v>
       </c>
       <c r="E145">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
       <c r="K145">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="L145">
         <v>0</v>
       </c>
       <c r="M145">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N145">
         <v>1.4</v>
       </c>
       <c r="O145">
-        <v>-48.3</v>
+        <v>-57.1</v>
       </c>
       <c r="P145">
         <v>0</v>
@@ -8319,31 +8319,31 @@
         <v>26216</v>
       </c>
       <c r="C146">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D146">
         <v>18</v>
       </c>
       <c r="E146">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F146">
         <v>10</v>
       </c>
       <c r="G146">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H146">
         <v>4</v>
       </c>
       <c r="I146">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J146">
         <v>6</v>
       </c>
       <c r="K146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L146">
         <v>-2</v>
@@ -8352,10 +8352,10 @@
         <v>0.1</v>
       </c>
       <c r="N146">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="O146">
-        <v>7.6</v>
+        <v>11.4</v>
       </c>
       <c r="P146">
         <v>-7.6</v>
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -8387,25 +8387,25 @@
         <v>0</v>
       </c>
       <c r="I147">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147">
-        <v>-43</v>
+        <v>-42</v>
       </c>
       <c r="L147">
         <v>0</v>
       </c>
       <c r="M147">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="N147">
         <v>0.9</v>
       </c>
       <c r="O147">
-        <v>-62.5</v>
+        <v>-61</v>
       </c>
       <c r="P147">
         <v>0</v>
@@ -8419,13 +8419,13 @@
         <v>90132</v>
       </c>
       <c r="C148">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D148">
         <v>4</v>
       </c>
       <c r="E148">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F148">
         <v>2</v>
@@ -8437,13 +8437,13 @@
         <v>2</v>
       </c>
       <c r="I148">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L148">
         <v>2</v>
@@ -8452,10 +8452,10 @@
         <v>1.7</v>
       </c>
       <c r="N148">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O148">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="P148">
         <v>2.2</v>
@@ -8469,43 +8469,43 @@
         <v>35599</v>
       </c>
       <c r="C149">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D149">
         <v>11</v>
       </c>
       <c r="E149">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F149">
         <v>6</v>
       </c>
       <c r="G149">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H149">
         <v>3</v>
       </c>
       <c r="I149">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J149">
         <v>3</v>
       </c>
       <c r="K149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L149">
         <v>0</v>
       </c>
       <c r="M149">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N149">
         <v>3.6</v>
       </c>
       <c r="O149">
-        <v>-2.8</v>
+        <v>0</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -8519,19 +8519,19 @@
         <v>5346</v>
       </c>
       <c r="C150">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F150">
         <v>0</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="K150">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L150">
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N150">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O150">
-        <v>-37.4</v>
+        <v>-18.7</v>
       </c>
       <c r="P150">
         <v>0</v>
@@ -8569,22 +8569,22 @@
         <v>20461</v>
       </c>
       <c r="C151">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151">
         <v>19</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151">
         <v>10</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151">
         <v>9</v>
@@ -8596,19 +8596,19 @@
         <v>1</v>
       </c>
       <c r="L151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M151">
         <v>0.4</v>
       </c>
       <c r="N151">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O151">
         <v>4.9</v>
       </c>
       <c r="P151">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -8769,19 +8769,19 @@
         <v>28928</v>
       </c>
       <c r="C155">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D155">
         <v>0</v>
       </c>
       <c r="E155">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
       <c r="G155">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -8793,19 +8793,19 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="L155">
         <v>0</v>
       </c>
       <c r="M155">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="N155">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O155">
-        <v>24.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="P155">
         <v>0</v>
@@ -8819,43 +8819,43 @@
         <v>103849</v>
       </c>
       <c r="C156">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D156">
         <v>4</v>
       </c>
       <c r="E156">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F156">
         <v>1</v>
       </c>
       <c r="G156">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J156">
         <v>1</v>
       </c>
       <c r="K156">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L156">
         <v>-1</v>
       </c>
       <c r="M156">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="N156">
         <v>1.1</v>
       </c>
       <c r="O156">
-        <v>27</v>
+        <v>33.7</v>
       </c>
       <c r="P156">
         <v>-1</v>
@@ -8875,10 +8875,10 @@
         <v>9</v>
       </c>
       <c r="E157">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F157">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G157">
         <v>22</v>
@@ -8887,28 +8887,28 @@
         <v>3</v>
       </c>
       <c r="I157">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J157">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K157">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="L157">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="M157">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="N157">
         <v>10.2</v>
       </c>
       <c r="O157">
-        <v>-90.40000000000001</v>
+        <v>-45.2</v>
       </c>
       <c r="P157">
-        <v>-33.9</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -8937,25 +8937,25 @@
         <v>0</v>
       </c>
       <c r="I158">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J158">
         <v>0</v>
       </c>
       <c r="K158">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="L158">
         <v>0</v>
       </c>
       <c r="M158">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="N158">
         <v>2.5</v>
       </c>
       <c r="O158">
-        <v>-80.90000000000001</v>
+        <v>-70.8</v>
       </c>
       <c r="P158">
         <v>0</v>
@@ -8981,19 +8981,19 @@
         <v>1</v>
       </c>
       <c r="G159">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J159">
         <v>1</v>
       </c>
       <c r="K159">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="L159">
         <v>-1</v>
@@ -9005,7 +9005,7 @@
         <v>3.9</v>
       </c>
       <c r="O159">
-        <v>-33</v>
+        <v>-55.1</v>
       </c>
       <c r="P159">
         <v>-11</v>
@@ -9019,7 +9019,7 @@
         <v>20656</v>
       </c>
       <c r="C160">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D160">
         <v>11</v>
@@ -9031,19 +9031,19 @@
         <v>7</v>
       </c>
       <c r="G160">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H160">
         <v>3</v>
       </c>
       <c r="I160">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J160">
         <v>4</v>
       </c>
       <c r="K160">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L160">
         <v>-1</v>
@@ -9052,10 +9052,10 @@
         <v>0.1</v>
       </c>
       <c r="N160">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O160">
-        <v>-4.8</v>
+        <v>4.8</v>
       </c>
       <c r="P160">
         <v>-4.8</v>
@@ -9069,43 +9069,43 @@
         <v>4496547</v>
       </c>
       <c r="C161">
-        <v>10877</v>
+        <v>11240</v>
       </c>
       <c r="D161">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E161">
-        <v>3756</v>
+        <v>3975</v>
       </c>
       <c r="F161">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G161">
-        <v>1899</v>
+        <v>2011</v>
       </c>
       <c r="H161">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I161">
-        <v>1857</v>
+        <v>1964</v>
       </c>
       <c r="J161">
         <v>76</v>
       </c>
       <c r="K161">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L161">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M161">
-        <v>24.3</v>
+        <v>19.3</v>
       </c>
       <c r="N161">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O161">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="P161">
         <v>0.6</v>
@@ -9119,46 +9119,46 @@
         <v>474104</v>
       </c>
       <c r="C162">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="D162">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E162">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="F162">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G162">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H162">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I162">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="J162">
         <v>8</v>
       </c>
       <c r="K162">
-        <v>-71</v>
+        <v>-38</v>
       </c>
       <c r="L162">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="M162">
-        <v>22.5</v>
+        <v>28</v>
       </c>
       <c r="N162">
         <v>1.9</v>
       </c>
       <c r="O162">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="P162">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9169,31 +9169,31 @@
         <v>701467</v>
       </c>
       <c r="C163">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D163">
         <v>18</v>
       </c>
       <c r="E163">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F163">
         <v>8</v>
       </c>
       <c r="G163">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H163">
         <v>4</v>
       </c>
       <c r="I163">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J163">
         <v>4</v>
       </c>
       <c r="K163">
-        <v>-16</v>
+        <v>-7</v>
       </c>
       <c r="L163">
         <v>0</v>
@@ -9205,7 +9205,7 @@
         <v>0.7</v>
       </c>
       <c r="O163">
-        <v>-2.3</v>
+        <v>-1</v>
       </c>
       <c r="P163">
         <v>0</v>
@@ -9219,46 +9219,46 @@
         <v>687850</v>
       </c>
       <c r="C164">
-        <v>2493</v>
+        <v>2789</v>
       </c>
       <c r="D164">
         <v>47</v>
       </c>
       <c r="E164">
-        <v>1462</v>
+        <v>1737</v>
       </c>
       <c r="F164">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G164">
-        <v>797</v>
+        <v>1067</v>
       </c>
       <c r="H164">
         <v>24</v>
       </c>
       <c r="I164">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="J164">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K164">
-        <v>132</v>
+        <v>397</v>
       </c>
       <c r="L164">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M164">
-        <v>57.2</v>
+        <v>56.7</v>
       </c>
       <c r="N164">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="O164">
-        <v>19.2</v>
+        <v>57.7</v>
       </c>
       <c r="P164">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9269,28 +9269,28 @@
         <v>299221</v>
       </c>
       <c r="C165">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="D165">
         <v>23</v>
       </c>
       <c r="E165">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F165">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G165">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H165">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I165">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J165">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K165">
         <v>-3</v>
@@ -9299,7 +9299,7 @@
         <v>-5</v>
       </c>
       <c r="M165">
-        <v>88.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="N165">
         <v>1.6</v>
@@ -9319,46 +9319,46 @@
         <v>495486</v>
       </c>
       <c r="C166">
-        <v>1010</v>
+        <v>1028</v>
       </c>
       <c r="D166">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E166">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F166">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G166">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H166">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I166">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="J166">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K166">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="L166">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M166">
-        <v>77</v>
+        <v>57.3</v>
       </c>
       <c r="N166">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O166">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P166">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9369,43 +9369,43 @@
         <v>612781</v>
       </c>
       <c r="C167">
-        <v>992</v>
+        <v>1028</v>
       </c>
       <c r="D167">
         <v>36</v>
       </c>
       <c r="E167">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="F167">
         <v>10</v>
       </c>
       <c r="G167">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="H167">
         <v>6</v>
       </c>
       <c r="I167">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J167">
         <v>4</v>
       </c>
       <c r="K167">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L167">
         <v>2</v>
       </c>
       <c r="M167">
-        <v>108</v>
+        <v>92.2</v>
       </c>
       <c r="N167">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O167">
-        <v>2.6</v>
+        <v>5.2</v>
       </c>
       <c r="P167">
         <v>0.3</v>
@@ -9419,46 +9419,46 @@
         <v>888903</v>
       </c>
       <c r="C168">
-        <v>1266</v>
+        <v>1289</v>
       </c>
       <c r="D168">
         <v>74</v>
       </c>
       <c r="E168">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="F168">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G168">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H168">
         <v>10</v>
       </c>
       <c r="I168">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="J168">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K168">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="L168">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="M168">
-        <v>21.7</v>
+        <v>14.3</v>
       </c>
       <c r="N168">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="P168">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9469,22 +9469,22 @@
         <v>370895</v>
       </c>
       <c r="C169">
-        <v>1474</v>
+        <v>1487</v>
       </c>
       <c r="D169">
         <v>82</v>
       </c>
       <c r="E169">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="F169">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H169">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I169">
         <v>242</v>
@@ -9493,22 +9493,22 @@
         <v>19</v>
       </c>
       <c r="K169">
-        <v>-45</v>
+        <v>-56</v>
       </c>
       <c r="L169">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M169">
-        <v>11.9</v>
+        <v>3.4</v>
       </c>
       <c r="N169">
         <v>4</v>
       </c>
       <c r="O169">
-        <v>-12.1</v>
+        <v>-15.1</v>
       </c>
       <c r="P169">
-        <v>-0.5</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9519,43 +9519,43 @@
         <v>411171</v>
       </c>
       <c r="C170">
-        <v>902</v>
+        <v>917</v>
       </c>
       <c r="D170">
         <v>51</v>
       </c>
       <c r="E170">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F170">
         <v>23</v>
       </c>
       <c r="G170">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H170">
         <v>12</v>
       </c>
       <c r="I170">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="J170">
         <v>11</v>
       </c>
       <c r="K170">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L170">
         <v>1</v>
       </c>
       <c r="M170">
-        <v>24.4</v>
+        <v>15</v>
       </c>
       <c r="N170">
         <v>2.2</v>
       </c>
       <c r="O170">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
         <v>0.2</v>
@@ -9569,43 +9569,43 @@
         <v>348677</v>
       </c>
       <c r="C171">
-        <v>3445</v>
+        <v>3463</v>
       </c>
       <c r="D171">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E171">
-        <v>754</v>
+        <v>724</v>
       </c>
       <c r="F171">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G171">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H171">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I171">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="J171">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K171">
-        <v>-110</v>
+        <v>-86</v>
       </c>
       <c r="L171">
         <v>-2</v>
       </c>
       <c r="M171">
-        <v>23.5</v>
+        <v>18</v>
       </c>
       <c r="N171">
         <v>9.9</v>
       </c>
       <c r="O171">
-        <v>-31.5</v>
+        <v>-24.7</v>
       </c>
       <c r="P171">
         <v>-0.6</v>
@@ -9619,46 +9619,46 @@
         <v>510382</v>
       </c>
       <c r="C172">
-        <v>1471</v>
+        <v>1486</v>
       </c>
       <c r="D172">
         <v>70</v>
       </c>
       <c r="E172">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="F172">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G172">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="H172">
         <v>24</v>
       </c>
       <c r="I172">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="J172">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K172">
-        <v>-47</v>
+        <v>-105</v>
       </c>
       <c r="L172">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M172">
-        <v>36.4</v>
+        <v>30.4</v>
       </c>
       <c r="N172">
         <v>2.9</v>
       </c>
       <c r="O172">
-        <v>-9.199999999999999</v>
+        <v>-20.6</v>
       </c>
       <c r="P172">
-        <v>2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -9819,13 +9819,13 @@
         <v>17154</v>
       </c>
       <c r="C176">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -9837,13 +9837,13 @@
         <v>0</v>
       </c>
       <c r="I176">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J176">
         <v>0</v>
       </c>
       <c r="K176">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="L176">
         <v>0</v>
@@ -9852,10 +9852,10 @@
         <v>227</v>
       </c>
       <c r="N176">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O176">
-        <v>-17.5</v>
+        <v>-29.1</v>
       </c>
       <c r="P176">
         <v>0</v>
@@ -9866,16 +9866,16 @@
         <v>191</v>
       </c>
       <c r="B177">
-        <v>52714</v>
+        <v>36084</v>
       </c>
       <c r="C177">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E177">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J177">
         <v>1</v>
       </c>
       <c r="K177">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="L177">
         <v>-1</v>
@@ -9902,13 +9902,13 @@
         <v>227</v>
       </c>
       <c r="N177">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="O177">
-        <v>7.6</v>
+        <v>-5.5</v>
       </c>
       <c r="P177">
-        <v>-1.9</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -9916,16 +9916,16 @@
         <v>192</v>
       </c>
       <c r="B178">
-        <v>36084</v>
+        <v>52714</v>
       </c>
       <c r="C178">
         <v>34</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -9937,13 +9937,13 @@
         <v>0</v>
       </c>
       <c r="I178">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J178">
         <v>1</v>
       </c>
       <c r="K178">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L178">
         <v>-1</v>
@@ -9952,13 +9952,13 @@
         <v>227</v>
       </c>
       <c r="N178">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="O178">
-        <v>-2.8</v>
+        <v>9.5</v>
       </c>
       <c r="P178">
-        <v>-2.8</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -9966,37 +9966,37 @@
         <v>193</v>
       </c>
       <c r="B179">
-        <v>74782</v>
+        <v>80264</v>
       </c>
       <c r="C179">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M179" t="s">
         <v>227</v>
@@ -10005,10 +10005,10 @@
         <v>0.5</v>
       </c>
       <c r="O179">
-        <v>-2.7</v>
+        <v>0</v>
       </c>
       <c r="P179">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10016,49 +10016,49 @@
         <v>194</v>
       </c>
       <c r="B180">
-        <v>80264</v>
+        <v>74782</v>
       </c>
       <c r="C180">
         <v>42</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E180">
+        <v>15</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
         <v>8</v>
       </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
-        <v>5</v>
-      </c>
       <c r="H180">
         <v>0</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M180" t="s">
         <v>227</v>
       </c>
       <c r="N180">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O180">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="P180">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10081,19 +10081,19 @@
         <v>0</v>
       </c>
       <c r="G181">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J181">
         <v>0</v>
       </c>
       <c r="K181">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="L181">
         <v>0</v>
@@ -10105,7 +10105,7 @@
         <v>1.4</v>
       </c>
       <c r="O181">
-        <v>9.6</v>
+        <v>-4.8</v>
       </c>
       <c r="P181">
         <v>0</v>
@@ -10119,19 +10119,19 @@
         <v>25676</v>
       </c>
       <c r="C182">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D182">
         <v>1</v>
       </c>
       <c r="E182">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F182">
         <v>0</v>
       </c>
       <c r="G182">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -10143,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="K182">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L182">
         <v>0</v>
@@ -10152,10 +10152,10 @@
         <v>227</v>
       </c>
       <c r="N182">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O182">
-        <v>3.9</v>
+        <v>23.4</v>
       </c>
       <c r="P182">
         <v>0</v>
@@ -10166,34 +10166,34 @@
         <v>197</v>
       </c>
       <c r="B183">
-        <v>26833</v>
+        <v>116655</v>
       </c>
       <c r="C183">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E183">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F183">
         <v>1</v>
       </c>
       <c r="G183">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J183">
         <v>1</v>
       </c>
       <c r="K183">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L183">
         <v>-1</v>
@@ -10202,13 +10202,13 @@
         <v>227</v>
       </c>
       <c r="N183">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="O183">
-        <v>70.8</v>
+        <v>6</v>
       </c>
       <c r="P183">
-        <v>-3.7</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10216,34 +10216,34 @@
         <v>198</v>
       </c>
       <c r="B184">
-        <v>116655</v>
+        <v>26833</v>
       </c>
       <c r="C184">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E184">
+        <v>40</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>30</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>10</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
         <v>20</v>
-      </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-      <c r="G184">
-        <v>12</v>
-      </c>
-      <c r="H184">
-        <v>0</v>
-      </c>
-      <c r="I184">
-        <v>8</v>
-      </c>
-      <c r="J184">
-        <v>1</v>
-      </c>
-      <c r="K184">
-        <v>4</v>
       </c>
       <c r="L184">
         <v>-1</v>
@@ -10252,13 +10252,13 @@
         <v>227</v>
       </c>
       <c r="N184">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>74.5</v>
       </c>
       <c r="P184">
-        <v>-0.9</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10269,31 +10269,31 @@
         <v>65755</v>
       </c>
       <c r="C185">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D185">
         <v>2</v>
       </c>
       <c r="E185">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F185">
         <v>1</v>
       </c>
       <c r="G185">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H185">
         <v>1</v>
       </c>
       <c r="I185">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J185">
         <v>0</v>
       </c>
       <c r="K185">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="L185">
         <v>1</v>
@@ -10302,10 +10302,10 @@
         <v>227</v>
       </c>
       <c r="N185">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O185">
-        <v>-4.6</v>
+        <v>13.7</v>
       </c>
       <c r="P185">
         <v>1.5</v>
@@ -10325,25 +10325,25 @@
         <v>12</v>
       </c>
       <c r="E186">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F186">
         <v>7</v>
       </c>
       <c r="G186">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H186">
         <v>2</v>
       </c>
       <c r="I186">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J186">
         <v>5</v>
       </c>
       <c r="K186">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L186">
         <v>-3</v>
@@ -10355,7 +10355,7 @@
         <v>2</v>
       </c>
       <c r="O186">
-        <v>31.7</v>
+        <v>15.8</v>
       </c>
       <c r="P186">
         <v>-5.3</v>
@@ -10369,46 +10369,46 @@
         <v>63925</v>
       </c>
       <c r="C187">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D187">
         <v>3</v>
       </c>
       <c r="E187">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F187">
         <v>1</v>
       </c>
       <c r="G187">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
         <v>15</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K187">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L187">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M187" t="s">
         <v>227</v>
       </c>
       <c r="N187">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O187">
-        <v>20.3</v>
+        <v>32.9</v>
       </c>
       <c r="P187">
-        <v>1.6</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10419,31 +10419,31 @@
         <v>40510</v>
       </c>
       <c r="C188">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D188">
         <v>5</v>
       </c>
       <c r="E188">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F188">
         <v>2</v>
       </c>
       <c r="G188">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H188">
         <v>2</v>
       </c>
       <c r="I188">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J188">
         <v>0</v>
       </c>
       <c r="K188">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L188">
         <v>2</v>
@@ -10452,10 +10452,10 @@
         <v>227</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O188">
-        <v>19.7</v>
+        <v>34.6</v>
       </c>
       <c r="P188">
         <v>4.9</v>
@@ -10469,31 +10469,31 @@
         <v>151350</v>
       </c>
       <c r="C189">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D189">
         <v>1</v>
       </c>
       <c r="E189">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F189">
         <v>0</v>
       </c>
       <c r="G189">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J189">
         <v>0</v>
       </c>
       <c r="K189">
-        <v>-72</v>
+        <v>-68</v>
       </c>
       <c r="L189">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0.8</v>
       </c>
       <c r="O189">
-        <v>-47.6</v>
+        <v>-44.9</v>
       </c>
       <c r="P189">
         <v>0</v>
@@ -10516,49 +10516,49 @@
         <v>204</v>
       </c>
       <c r="B190">
-        <v>143406</v>
+        <v>96824</v>
       </c>
       <c r="C190">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E190">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="F190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G190">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="H190">
         <v>1</v>
       </c>
       <c r="I190">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K190">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="L190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M190" t="s">
         <v>227</v>
       </c>
       <c r="N190">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O190">
-        <v>23.7</v>
+        <v>1</v>
       </c>
       <c r="P190">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -10566,49 +10566,49 @@
         <v>205</v>
       </c>
       <c r="B191">
-        <v>96824</v>
+        <v>143406</v>
       </c>
       <c r="C191">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D191">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E191">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="F191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G191">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="H191">
         <v>1</v>
       </c>
       <c r="I191">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K191">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="L191">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M191" t="s">
         <v>227</v>
       </c>
       <c r="N191">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="O191">
-        <v>4.1</v>
+        <v>26.5</v>
       </c>
       <c r="P191">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -10616,49 +10616,49 @@
         <v>206</v>
       </c>
       <c r="B192">
-        <v>51226</v>
+        <v>69774</v>
       </c>
       <c r="C192">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D192">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E192">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F192">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G192">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H192">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192">
-        <v>15</v>
+        <v>-4</v>
       </c>
       <c r="L192">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M192" t="s">
         <v>227</v>
       </c>
       <c r="N192">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O192">
-        <v>29.3</v>
+        <v>-5.7</v>
       </c>
       <c r="P192">
-        <v>5.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -10666,49 +10666,49 @@
         <v>207</v>
       </c>
       <c r="B193">
-        <v>69774</v>
+        <v>51226</v>
       </c>
       <c r="C193">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D193">
+        <v>8</v>
+      </c>
+      <c r="E193">
+        <v>74</v>
+      </c>
+      <c r="F193">
+        <v>5</v>
+      </c>
+      <c r="G193">
+        <v>45</v>
+      </c>
+      <c r="H193">
         <v>4</v>
       </c>
-      <c r="E193">
-        <v>70</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-      <c r="G193">
-        <v>28</v>
-      </c>
-      <c r="H193">
-        <v>0</v>
-      </c>
       <c r="I193">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193">
-        <v>-14</v>
+        <v>16</v>
       </c>
       <c r="L193">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M193" t="s">
         <v>227</v>
       </c>
       <c r="N193">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O193">
-        <v>-20.1</v>
+        <v>31.2</v>
       </c>
       <c r="P193">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -10725,25 +10725,25 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F194">
         <v>1</v>
       </c>
       <c r="G194">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H194">
         <v>1</v>
       </c>
       <c r="I194">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J194">
         <v>0</v>
       </c>
       <c r="K194">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="L194">
         <v>1</v>
@@ -10755,7 +10755,7 @@
         <v>7.3</v>
       </c>
       <c r="O194">
-        <v>-78.8</v>
+        <v>-91.90000000000001</v>
       </c>
       <c r="P194">
         <v>4.4</v>
@@ -10769,25 +10769,25 @@
         <v>54763</v>
       </c>
       <c r="C195">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D195">
         <v>14</v>
       </c>
       <c r="E195">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F195">
         <v>7</v>
       </c>
       <c r="G195">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H195">
         <v>4</v>
       </c>
       <c r="I195">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J195">
         <v>3</v>
@@ -10799,7 +10799,7 @@
         <v>1</v>
       </c>
       <c r="M195">
-        <v>43.4</v>
+        <v>35.4</v>
       </c>
       <c r="N195">
         <v>3.3</v>
@@ -10819,34 +10819,34 @@
         <v>45606</v>
       </c>
       <c r="C196">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D196">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F196">
+        <v>5</v>
+      </c>
+      <c r="G196">
+        <v>23</v>
+      </c>
+      <c r="H196">
         <v>4</v>
       </c>
-      <c r="G196">
-        <v>22</v>
-      </c>
-      <c r="H196">
+      <c r="I196">
+        <v>45</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>-22</v>
+      </c>
+      <c r="L196">
         <v>3</v>
-      </c>
-      <c r="I196">
-        <v>57</v>
-      </c>
-      <c r="J196">
-        <v>1</v>
-      </c>
-      <c r="K196">
-        <v>-35</v>
-      </c>
-      <c r="L196">
-        <v>2</v>
       </c>
       <c r="M196" t="s">
         <v>227</v>
@@ -10855,10 +10855,10 @@
         <v>4.1</v>
       </c>
       <c r="O196">
-        <v>-76.7</v>
+        <v>-48.2</v>
       </c>
       <c r="P196">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -10869,19 +10869,19 @@
         <v>44730</v>
       </c>
       <c r="C197">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D197">
         <v>19</v>
       </c>
       <c r="E197">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F197">
         <v>6</v>
       </c>
       <c r="G197">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -10893,7 +10893,7 @@
         <v>3</v>
       </c>
       <c r="K197">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="L197">
         <v>0</v>
@@ -10902,10 +10902,10 @@
         <v>227</v>
       </c>
       <c r="N197">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O197">
-        <v>-20.1</v>
+        <v>-17.9</v>
       </c>
       <c r="P197">
         <v>0</v>
@@ -10919,43 +10919,43 @@
         <v>26216</v>
       </c>
       <c r="C198">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D198">
         <v>18</v>
       </c>
       <c r="E198">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F198">
         <v>10</v>
       </c>
       <c r="G198">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H198">
         <v>4</v>
       </c>
       <c r="I198">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J198">
         <v>6</v>
       </c>
       <c r="K198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L198">
         <v>-2</v>
       </c>
       <c r="M198">
-        <v>38</v>
+        <v>35.4</v>
       </c>
       <c r="N198">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="O198">
-        <v>7.6</v>
+        <v>11.4</v>
       </c>
       <c r="P198">
         <v>-7.6</v>
@@ -10969,13 +10969,13 @@
         <v>144564</v>
       </c>
       <c r="C199">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D199">
         <v>11</v>
       </c>
       <c r="E199">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F199">
         <v>2</v>
@@ -10987,13 +10987,13 @@
         <v>0</v>
       </c>
       <c r="I199">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J199">
         <v>2</v>
       </c>
       <c r="K199">
-        <v>-17</v>
+        <v>-13</v>
       </c>
       <c r="L199">
         <v>-2</v>
@@ -11005,7 +11005,7 @@
         <v>1.6</v>
       </c>
       <c r="O199">
-        <v>-11.8</v>
+        <v>-9</v>
       </c>
       <c r="P199">
         <v>-1.4</v>
@@ -11019,46 +11019,46 @@
         <v>53821</v>
       </c>
       <c r="C200">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="D200">
         <v>10</v>
       </c>
       <c r="E200">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F200">
         <v>8</v>
       </c>
       <c r="G200">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H200">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I200">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K200">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="L200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M200">
-        <v>124.6</v>
+        <v>100.8</v>
       </c>
       <c r="N200">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O200">
-        <v>39</v>
+        <v>14.9</v>
       </c>
       <c r="P200">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11069,43 +11069,43 @@
         <v>178648</v>
       </c>
       <c r="C201">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D201">
         <v>16</v>
       </c>
       <c r="E201">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F201">
         <v>4</v>
       </c>
       <c r="G201">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J201">
         <v>3</v>
       </c>
       <c r="K201">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L201">
         <v>-2</v>
       </c>
       <c r="M201">
-        <v>198.8</v>
+        <v>194.5</v>
       </c>
       <c r="N201">
         <v>1.6</v>
       </c>
       <c r="O201">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="P201">
         <v>-1.1</v>
@@ -11131,19 +11131,19 @@
         <v>1</v>
       </c>
       <c r="G202">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H202">
         <v>0</v>
       </c>
       <c r="I202">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J202">
         <v>1</v>
       </c>
       <c r="K202">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L202">
         <v>-1</v>
@@ -11155,7 +11155,7 @@
         <v>1.4</v>
       </c>
       <c r="O202">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="P202">
         <v>-0.5</v>
@@ -11175,25 +11175,25 @@
         <v>13</v>
       </c>
       <c r="E203">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F203">
         <v>5</v>
       </c>
       <c r="G203">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H203">
         <v>4</v>
       </c>
       <c r="I203">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J203">
         <v>1</v>
       </c>
       <c r="K203">
-        <v>-22</v>
+        <v>-19</v>
       </c>
       <c r="L203">
         <v>3</v>
@@ -11205,7 +11205,7 @@
         <v>0.8</v>
       </c>
       <c r="O203">
-        <v>-5.8</v>
+        <v>-5</v>
       </c>
       <c r="P203">
         <v>0.8</v>
@@ -11219,43 +11219,43 @@
         <v>44289</v>
       </c>
       <c r="C204">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="D204">
         <v>8</v>
       </c>
       <c r="E204">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="F204">
         <v>6</v>
       </c>
       <c r="G204">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="H204">
         <v>5</v>
       </c>
       <c r="I204">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J204">
         <v>1</v>
       </c>
       <c r="K204">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L204">
         <v>4</v>
       </c>
       <c r="M204">
-        <v>229.4</v>
+        <v>220.4</v>
       </c>
       <c r="N204">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O204">
-        <v>155.8</v>
+        <v>173.9</v>
       </c>
       <c r="P204">
         <v>9</v>
@@ -11269,37 +11269,37 @@
         <v>229676</v>
       </c>
       <c r="C205">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D205">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E205">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F205">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G205">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H205">
         <v>7</v>
       </c>
       <c r="I205">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J205">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K205">
         <v>13</v>
       </c>
       <c r="L205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M205">
-        <v>76.3</v>
+        <v>57</v>
       </c>
       <c r="N205">
         <v>1.7</v>
@@ -11308,7 +11308,7 @@
         <v>5.7</v>
       </c>
       <c r="P205">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11319,31 +11319,31 @@
         <v>35563</v>
       </c>
       <c r="C206">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D206">
         <v>29</v>
       </c>
       <c r="E206">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F206">
         <v>14</v>
       </c>
       <c r="G206">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H206">
         <v>7</v>
       </c>
       <c r="I206">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J206">
         <v>7</v>
       </c>
       <c r="K206">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="L206">
         <v>0</v>
@@ -11352,10 +11352,10 @@
         <v>227</v>
       </c>
       <c r="N206">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="O206">
-        <v>-25.3</v>
+        <v>-5.6</v>
       </c>
       <c r="P206">
         <v>0</v>
@@ -11369,43 +11369,43 @@
         <v>261931</v>
       </c>
       <c r="C207">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D207">
         <v>11</v>
       </c>
       <c r="E207">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F207">
         <v>3</v>
       </c>
       <c r="G207">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H207">
         <v>3</v>
       </c>
       <c r="I207">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J207">
         <v>0</v>
       </c>
       <c r="K207">
-        <v>1</v>
+        <v>-12</v>
       </c>
       <c r="L207">
         <v>3</v>
       </c>
       <c r="M207">
-        <v>30</v>
+        <v>24.8</v>
       </c>
       <c r="N207">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O207">
-        <v>0.4</v>
+        <v>-4.6</v>
       </c>
       <c r="P207">
         <v>1.1</v>
@@ -11419,46 +11419,46 @@
         <v>400605</v>
       </c>
       <c r="C208">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D208">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E208">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="F208">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G208">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I208">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="J208">
         <v>8</v>
       </c>
       <c r="K208">
-        <v>-84</v>
+        <v>-58</v>
       </c>
       <c r="L208">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="M208">
-        <v>75.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="N208">
         <v>1.8</v>
       </c>
       <c r="O208">
-        <v>-21</v>
+        <v>-14.5</v>
       </c>
       <c r="P208">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11469,43 +11469,43 @@
         <v>195961</v>
       </c>
       <c r="C209">
-        <v>1482</v>
+        <v>1694</v>
       </c>
       <c r="D209">
         <v>22</v>
       </c>
       <c r="E209">
-        <v>877</v>
+        <v>1087</v>
       </c>
       <c r="F209">
         <v>16</v>
       </c>
       <c r="G209">
-        <v>460</v>
+        <v>662</v>
       </c>
       <c r="H209">
         <v>13</v>
       </c>
       <c r="I209">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="J209">
         <v>3</v>
       </c>
       <c r="K209">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="L209">
         <v>10</v>
       </c>
       <c r="M209">
-        <v>538.6</v>
+        <v>485.4</v>
       </c>
       <c r="N209">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="O209">
-        <v>21.9</v>
+        <v>120.9</v>
       </c>
       <c r="P209">
         <v>5.1</v>
@@ -11519,46 +11519,46 @@
         <v>149912</v>
       </c>
       <c r="C210">
-        <v>2196</v>
+        <v>2208</v>
       </c>
       <c r="D210">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E210">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="F210">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G210">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H210">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I210">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="J210">
         <v>28</v>
       </c>
       <c r="K210">
-        <v>-22</v>
+        <v>6</v>
       </c>
       <c r="L210">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="M210">
-        <v>34.4</v>
+        <v>32</v>
       </c>
       <c r="N210">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="O210">
-        <v>-14.7</v>
+        <v>4</v>
       </c>
       <c r="P210">
-        <v>-4</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -11569,46 +11569,46 @@
         <v>5779463</v>
       </c>
       <c r="C211">
-        <v>13430</v>
+        <v>13860</v>
       </c>
       <c r="D211">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E211">
-        <v>4698</v>
+        <v>4937</v>
       </c>
       <c r="F211">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G211">
-        <v>2382</v>
+        <v>2477</v>
       </c>
       <c r="H211">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I211">
-        <v>2316</v>
+        <v>2460</v>
       </c>
       <c r="J211">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K211">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="L211">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M211">
-        <v>23.8</v>
+        <v>19.1</v>
       </c>
       <c r="N211">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O211">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="P211">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -11619,43 +11619,43 @@
         <v>10297484</v>
       </c>
       <c r="C212">
-        <v>25789</v>
+        <v>26616</v>
       </c>
       <c r="D212">
-        <v>1153</v>
+        <v>1161</v>
       </c>
       <c r="E212">
-        <v>9411</v>
+        <v>9863</v>
       </c>
       <c r="F212">
         <v>494</v>
       </c>
       <c r="G212">
-        <v>4682</v>
+        <v>5031</v>
       </c>
       <c r="H212">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I212">
-        <v>4729</v>
+        <v>4832</v>
       </c>
       <c r="J212">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K212">
-        <v>-47</v>
+        <v>199</v>
       </c>
       <c r="L212">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M212">
-        <v>18.3</v>
+        <v>14.9</v>
       </c>
       <c r="N212">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O212">
-        <v>-0.5</v>
+        <v>1.9</v>
       </c>
       <c r="P212">
         <v>0.4</v>

--- a/application/app-data/covidDataWrapper.xlsx
+++ b/application/app-data/covidDataWrapper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmainza/Desktop/projects/covid-recovery/application/app-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21720E37-5FBD-524F-8038-576395DE31EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE91AF8E-9709-454E-82B3-9BACF0478C4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="460" windowWidth="31540" windowHeight="18040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34480" yWindow="5140" windowWidth="31540" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="msa" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,24 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">counties!$A$1:$Q$160</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">msa!$A$1:$Q$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">msa!$A$1:$R$39</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="407">
   <si>
     <t>area</t>
   </si>
@@ -593,18 +603,12 @@
     <t>Three Rivers</t>
   </si>
   <si>
-    <t>Eufaula, AL-GA</t>
-  </si>
-  <si>
     <t>Jesup, GA</t>
   </si>
   <si>
     <t>Summerville, GA</t>
   </si>
   <si>
-    <t>Fitzgerald, GA</t>
-  </si>
-  <si>
     <t>St. Marys, GA</t>
   </si>
   <si>
@@ -1233,12 +1237,36 @@
   </si>
   <si>
     <t>lat</t>
+  </si>
+  <si>
+    <t>Recent Cases per 1,000</t>
+  </si>
+  <si>
+    <t>Recent Cases</t>
+  </si>
+  <si>
+    <t>Metro or Micropolitan Area</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Previous Week</t>
+  </si>
+  <si>
+    <t>Cases This Week</t>
+  </si>
+  <si>
+    <t>Change per 100K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1302,7 +1330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1310,6 +1338,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1648,27 +1680,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="17.83203125" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="4"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="21.5" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1676,2109 +1714,2157 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>18380</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2">
+        <v>22846</v>
+      </c>
+      <c r="D2">
+        <v>170</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>21640</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2">
-        <v>2276</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
+      <c r="F2" s="4">
+        <f>(G2/C2)*1000</f>
+        <v>1.9697102337389478</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O2">
-        <v>2.6</v>
+        <v>-19</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>226</v>
       </c>
       <c r="P2">
-        <v>43.9</v>
+        <v>7.4</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>-83.2</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>45740</v>
+      </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3">
+        <v>25676</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <f>(G3/C3)*1000</f>
+        <v>1.8694500701043775</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>31</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>-14</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>226</v>
+      </c>
+      <c r="P3">
+        <v>3.4</v>
+      </c>
+      <c r="Q3">
+        <v>-54.5</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>16860</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>151350</v>
+      </c>
+      <c r="D4">
+        <v>128</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <f>(G4/C4)*1000</f>
+        <v>0.50214734060125543</v>
+      </c>
+      <c r="G4">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>66</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>-56</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>226</v>
+      </c>
+      <c r="P4">
+        <v>0.8</v>
+      </c>
+      <c r="Q4">
+        <v>-37</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>29300</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5">
+        <v>69774</v>
+      </c>
+      <c r="D5">
+        <v>159</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
+        <f>(G5/C5)*1000</f>
+        <v>0.84558718147160827</v>
+      </c>
+      <c r="G5">
+        <v>59</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>-17</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>226</v>
+      </c>
+      <c r="P5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q5">
+        <v>-24.4</v>
+      </c>
+      <c r="R5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>46660</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6">
+        <v>144564</v>
+      </c>
+      <c r="D6">
+        <v>238</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4">
+        <f>(G6/C6)*1000</f>
+        <v>0.71248720289975376</v>
+      </c>
+      <c r="G6">
+        <v>103</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>34</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>69</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>-35</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>226</v>
+      </c>
+      <c r="P6">
+        <v>1.6</v>
+      </c>
+      <c r="Q6">
+        <v>-24.2</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7">
+        <v>400605</v>
+      </c>
+      <c r="D7">
+        <v>736</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4">
+        <f>(G7/C7)*1000</f>
+        <v>0.60658254390234767</v>
+      </c>
+      <c r="G7">
+        <v>243</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>87</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>156</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>-69</v>
+      </c>
+      <c r="N7">
+        <v>-1</v>
+      </c>
+      <c r="O7">
+        <v>24.5</v>
+      </c>
+      <c r="P7">
+        <v>1.8</v>
+      </c>
+      <c r="Q7">
+        <v>-17.2</v>
+      </c>
+      <c r="R7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>44900</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8">
+        <v>24817</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <f>(G8/C8)*1000</f>
+        <v>0.24176975460369907</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>-4</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0.6</v>
+      </c>
+      <c r="Q8">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>34220</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9">
+        <v>45606</v>
+      </c>
+      <c r="D9">
+        <v>192</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4">
+        <f>(G9/C9)*1000</f>
+        <v>1.0305661535762838</v>
+      </c>
+      <c r="G9">
+        <v>47</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>27</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>-7</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>226</v>
+      </c>
+      <c r="P9">
+        <v>4.2</v>
+      </c>
+      <c r="Q9">
+        <v>-15.3</v>
+      </c>
+      <c r="R9">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>48180</v>
+      </c>
+      <c r="B10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10">
+        <v>54763</v>
+      </c>
+      <c r="D10">
+        <v>186</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4">
+        <f>(G10/C10)*1000</f>
+        <v>0.85824370469112354</v>
+      </c>
+      <c r="G10">
+        <v>47</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>27</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>-7</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>226</v>
+      </c>
+      <c r="P10">
+        <v>3.4</v>
+      </c>
+      <c r="Q10">
+        <v>-12.8</v>
+      </c>
+      <c r="R10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>27700</v>
       </c>
-      <c r="B3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3">
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11">
         <v>29767</v>
       </c>
-      <c r="D3">
+      <c r="D11">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f>(G11/C11)*1000</f>
+        <v>0.16797124332314306</v>
+      </c>
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>4</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>-3</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>228</v>
-      </c>
-      <c r="O3">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>226</v>
+      </c>
+      <c r="P11">
         <v>0.4</v>
       </c>
-      <c r="P3">
+      <c r="Q11">
         <v>-10.1</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>44900</v>
-      </c>
-      <c r="B4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4">
-        <v>24817</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12020</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12">
+        <v>205303</v>
+      </c>
+      <c r="D12">
+        <v>302</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4">
+        <f>(G12/C12)*1000</f>
+        <v>0.42863474961398518</v>
+      </c>
+      <c r="G12">
+        <v>88</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>35</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>53</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>-18</v>
+      </c>
+      <c r="N12">
+        <v>-1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>226</v>
+      </c>
+      <c r="P12">
+        <v>1.5</v>
+      </c>
+      <c r="Q12">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="R12">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>17980</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13">
+        <v>261931</v>
+      </c>
+      <c r="D13">
+        <v>496</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4">
+        <f>(G13/C13)*1000</f>
+        <v>0.57648770095941304</v>
+      </c>
+      <c r="G13">
+        <v>151</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>68</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>83</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>-15</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>27.7</v>
+      </c>
+      <c r="P13">
+        <v>1.9</v>
+      </c>
+      <c r="Q13">
+        <v>-5.7</v>
+      </c>
+      <c r="R13">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>47080</v>
+      </c>
+      <c r="B14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14">
+        <v>36084</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <f>(G14/C14)*1000</f>
+        <v>0.38798359383660347</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>-4</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0.6</v>
-      </c>
-      <c r="P4">
-        <v>-16.100000000000001</v>
-      </c>
-      <c r="Q4">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>-2</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>226</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>-5.5</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>16340</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15">
+        <v>41621</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f>(G15/C15)*1000</f>
+        <v>0.57663198865957088</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>-2</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>226</v>
+      </c>
+      <c r="P15">
+        <v>1.4</v>
+      </c>
+      <c r="Q15">
+        <v>-4.8</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>45620</v>
+      </c>
+      <c r="B16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16">
+        <v>44730</v>
+      </c>
+      <c r="D16">
+        <v>196</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4">
+        <f>(G16/C16)*1000</f>
+        <v>1.5649452269170578</v>
+      </c>
+      <c r="G16">
+        <v>70</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>34</v>
+      </c>
+      <c r="J16">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>22340</v>
-      </c>
-      <c r="B5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5">
-        <v>17154</v>
-      </c>
-      <c r="D5">
+      <c r="K16">
+        <v>36</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>-2</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>226</v>
+      </c>
+      <c r="P16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q16">
+        <v>-4.5</v>
+      </c>
+      <c r="R16">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>11140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17">
+        <v>35563</v>
+      </c>
+      <c r="D17">
+        <v>407</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4">
+        <f>(G17/C17)*1000</f>
+        <v>1.6590276410876474</v>
+      </c>
+      <c r="G17">
+        <v>59</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
         <v>29</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>14</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>9</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>-4</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>228</v>
-      </c>
-      <c r="O5">
-        <v>1.7</v>
-      </c>
-      <c r="P5">
-        <v>-23.3</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>41220</v>
-      </c>
-      <c r="B6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6">
-        <v>52714</v>
-      </c>
-      <c r="D6">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>-1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>228</v>
-      </c>
-      <c r="O6">
-        <v>0.6</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>-1.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>47080</v>
-      </c>
-      <c r="B7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7">
-        <v>36084</v>
-      </c>
-      <c r="D7">
-        <v>36</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>-2</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>228</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>-5.5</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>25980</v>
-      </c>
-      <c r="B8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8">
-        <v>80264</v>
-      </c>
-      <c r="D8">
-        <v>42</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>228</v>
-      </c>
-      <c r="O8">
-        <v>0.5</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>44340</v>
-      </c>
-      <c r="B9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9">
-        <v>74782</v>
-      </c>
-      <c r="D9">
-        <v>43</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>9</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>228</v>
-      </c>
-      <c r="O9">
-        <v>0.6</v>
-      </c>
-      <c r="P9">
-        <v>6.7</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>16340</v>
-      </c>
-      <c r="B10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10">
-        <v>41621</v>
-      </c>
-      <c r="D10">
-        <v>60</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>24</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>13</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>-2</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>228</v>
-      </c>
-      <c r="O10">
-        <v>1.4</v>
-      </c>
-      <c r="P10">
-        <v>-4.8</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>15260</v>
-      </c>
-      <c r="B11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11">
-        <v>116655</v>
-      </c>
-      <c r="D11">
-        <v>86</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>7</v>
-      </c>
-      <c r="M11">
-        <v>-1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>228</v>
-      </c>
-      <c r="O11">
-        <v>0.7</v>
-      </c>
-      <c r="P11">
-        <v>6</v>
-      </c>
-      <c r="Q11">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>45740</v>
-      </c>
-      <c r="B12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12">
-        <v>25676</v>
-      </c>
-      <c r="D12">
-        <v>88</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>48</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>17</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>31</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>-14</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>228</v>
-      </c>
-      <c r="O12">
-        <v>3.4</v>
-      </c>
-      <c r="P12">
-        <v>-54.5</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12460</v>
-      </c>
-      <c r="B13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13">
-        <v>26833</v>
-      </c>
-      <c r="D13">
-        <v>94</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>44</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>30</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>14</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>16</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>228</v>
-      </c>
-      <c r="O13">
-        <v>3.5</v>
-      </c>
-      <c r="P13">
-        <v>59.6</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>27600</v>
-      </c>
-      <c r="B14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14">
-        <v>65755</v>
-      </c>
-      <c r="D14">
-        <v>111</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>56</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>34</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>22</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>12</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>228</v>
-      </c>
-      <c r="O14">
-        <v>1.7</v>
-      </c>
-      <c r="P14">
-        <v>18.2</v>
-      </c>
-      <c r="Q14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>15660</v>
-      </c>
-      <c r="B15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15">
-        <v>56790</v>
-      </c>
-      <c r="D15">
-        <v>116</v>
-      </c>
-      <c r="E15">
-        <v>13</v>
-      </c>
-      <c r="F15">
-        <v>52</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>35</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>17</v>
-      </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-      <c r="L15">
-        <v>18</v>
-      </c>
-      <c r="M15">
-        <v>-5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>228</v>
-      </c>
-      <c r="O15">
-        <v>2</v>
-      </c>
-      <c r="P15">
-        <v>31.7</v>
-      </c>
-      <c r="Q15">
-        <v>-8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>16860</v>
-      </c>
-      <c r="B16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16">
-        <v>151350</v>
-      </c>
-      <c r="D16">
-        <v>128</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>76</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>66</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>-56</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>228</v>
-      </c>
-      <c r="O16">
-        <v>0.8</v>
-      </c>
-      <c r="P16">
-        <v>-37</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>45700</v>
-      </c>
-      <c r="B17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17">
-        <v>40510</v>
-      </c>
-      <c r="D17">
-        <v>132</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>40</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>35</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>-2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>228</v>
+        <v>-1</v>
+      </c>
+      <c r="N17">
+        <v>-1</v>
       </c>
       <c r="O17">
-        <v>3.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="P17">
-        <v>74.099999999999994</v>
+        <v>11.4</v>
       </c>
       <c r="Q17">
-        <v>-4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+        <v>-2.8</v>
+      </c>
+      <c r="R17">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>20140</v>
+        <v>41220</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C18">
-        <v>63925</v>
+        <v>52714</v>
       </c>
       <c r="D18">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <f>(G18/C18)*1000</f>
+        <v>0.11382175513146413</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>54</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>38</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>-1</v>
       </c>
-      <c r="N18" t="s">
-        <v>228</v>
-      </c>
-      <c r="O18">
-        <v>2.1</v>
+      <c r="O18" t="s">
+        <v>226</v>
       </c>
       <c r="P18">
-        <v>34.4</v>
+        <v>0.6</v>
       </c>
       <c r="Q18">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>40660</v>
+        <v>25980</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C19">
-        <v>96824</v>
+        <v>80264</v>
       </c>
       <c r="D19">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="E19">
-        <v>11</v>
-      </c>
-      <c r="F19">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <f>(G19/C19)*1000</f>
+        <v>7.4753314063590148E-2</v>
       </c>
       <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>3</v>
       </c>
-      <c r="H19">
-        <v>16</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>226</v>
+      </c>
+      <c r="P19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>42340</v>
+      </c>
+      <c r="B20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20">
+        <v>381623</v>
+      </c>
+      <c r="D20">
+        <v>337</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4">
+        <f>(G20/C20)*1000</f>
+        <v>0.24107561651158343</v>
+      </c>
+      <c r="G20">
+        <v>92</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>47</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>45</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20" t="s">
+        <v>226</v>
+      </c>
+      <c r="P20">
+        <v>0.9</v>
+      </c>
+      <c r="Q20">
+        <v>0.5</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>15260</v>
+      </c>
+      <c r="B21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21">
+        <v>116655</v>
+      </c>
+      <c r="D21">
+        <v>86</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <f>(G21/C21)*1000</f>
+        <v>0.11143971540011144</v>
+      </c>
+      <c r="G21">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <v>-1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>226</v>
+      </c>
+      <c r="P21">
+        <v>0.7</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>12060</v>
+      </c>
+      <c r="B22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22">
+        <v>5779463</v>
+      </c>
+      <c r="D22">
+        <v>14499</v>
+      </c>
+      <c r="E22">
+        <v>560</v>
+      </c>
+      <c r="F22" s="4">
+        <f>(G22/C22)*1000</f>
+        <v>0.83277633233399018</v>
+      </c>
+      <c r="G22">
+        <v>4813</v>
+      </c>
+      <c r="H22">
+        <v>221</v>
+      </c>
+      <c r="I22">
+        <v>2582</v>
+      </c>
+      <c r="J22">
+        <v>120</v>
+      </c>
+      <c r="K22">
+        <v>2231</v>
+      </c>
+      <c r="L22">
+        <v>101</v>
+      </c>
+      <c r="M22">
+        <v>351</v>
+      </c>
+      <c r="N22">
+        <v>19</v>
+      </c>
+      <c r="O22">
+        <v>24.1</v>
+      </c>
+      <c r="P22">
+        <v>2.5</v>
+      </c>
+      <c r="Q22">
+        <v>6.1</v>
+      </c>
+      <c r="R22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>44340</v>
+      </c>
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23">
+        <v>74782</v>
+      </c>
+      <c r="D23">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
+        <f>(G23/C23)*1000</f>
+        <v>0.17383862426787197</v>
+      </c>
+      <c r="G23">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>226</v>
+      </c>
+      <c r="P23">
+        <v>0.6</v>
+      </c>
+      <c r="Q23">
+        <v>6.7</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>40660</v>
+      </c>
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24">
+        <v>96824</v>
+      </c>
+      <c r="D24">
+        <v>150</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4">
+        <f>(G24/C24)*1000</f>
+        <v>0.24787242832355616</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>8</v>
       </c>
-      <c r="M19">
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24">
         <v>-3</v>
       </c>
-      <c r="N19" t="s">
-        <v>228</v>
-      </c>
-      <c r="O19">
+      <c r="O24" t="s">
+        <v>226</v>
+      </c>
+      <c r="P24">
         <v>1.5</v>
       </c>
-      <c r="P19">
+      <c r="Q24">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q19">
+      <c r="R24">
         <v>-3.1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>29300</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>33300</v>
+      </c>
+      <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25">
+        <v>53821</v>
+      </c>
+      <c r="D25">
+        <v>303</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4">
+        <f>(G25/C25)*1000</f>
+        <v>3.0285576262053846</v>
+      </c>
+      <c r="G25">
+        <v>163</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>85</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <v>78</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>75.8</v>
+      </c>
+      <c r="P25">
+        <v>5.6</v>
+      </c>
+      <c r="Q25">
+        <v>13</v>
+      </c>
+      <c r="R25">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>31420</v>
+      </c>
+      <c r="B26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26">
+        <v>229676</v>
+      </c>
+      <c r="D26">
+        <v>426</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26" s="4">
+        <f>(G26/C26)*1000</f>
+        <v>0.74017311342935266</v>
+      </c>
+      <c r="G26">
+        <v>170</v>
+      </c>
+      <c r="H26">
+        <v>13</v>
+      </c>
+      <c r="I26">
+        <v>101</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>69</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>32</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>81.7</v>
+      </c>
+      <c r="P26">
+        <v>1.9</v>
+      </c>
+      <c r="Q26">
+        <v>13.9</v>
+      </c>
+      <c r="R26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10500</v>
+      </c>
+      <c r="B27" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27">
+        <v>149912</v>
+      </c>
+      <c r="D27">
+        <v>2228</v>
+      </c>
+      <c r="E27">
+        <v>177</v>
+      </c>
+      <c r="F27" s="4">
+        <f>(G27/C27)*1000</f>
+        <v>1.5875980575270825</v>
+      </c>
+      <c r="G27">
+        <v>238</v>
+      </c>
+      <c r="H27">
+        <v>38</v>
+      </c>
+      <c r="I27">
+        <v>131</v>
+      </c>
+      <c r="J27">
+        <v>18</v>
+      </c>
+      <c r="K27">
+        <v>107</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+      <c r="M27">
+        <v>24</v>
+      </c>
+      <c r="N27">
+        <v>-2</v>
+      </c>
+      <c r="O27">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="P27">
+        <v>14.9</v>
+      </c>
+      <c r="Q27">
+        <v>16</v>
+      </c>
+      <c r="R27">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>47580</v>
+      </c>
+      <c r="B28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28">
+        <v>178648</v>
+      </c>
+      <c r="D28">
+        <v>320</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28" s="4">
+        <f>(G28/C28)*1000</f>
+        <v>0.57655277417043571</v>
+      </c>
+      <c r="G28">
+        <v>103</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>66</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>37</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>29</v>
+      </c>
+      <c r="N28">
+        <v>-1</v>
+      </c>
+      <c r="O28">
+        <v>103.2</v>
+      </c>
+      <c r="P28">
+        <v>1.8</v>
+      </c>
+      <c r="Q28">
+        <v>16.2</v>
+      </c>
+      <c r="R28">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27600</v>
+      </c>
+      <c r="B29" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29">
+        <v>65755</v>
+      </c>
+      <c r="D29">
+        <v>111</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4">
+        <f>(G29/C29)*1000</f>
+        <v>0.85164626264162424</v>
+      </c>
+      <c r="G29">
+        <v>56</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>34</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>22</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>226</v>
+      </c>
+      <c r="P29">
+        <v>1.7</v>
+      </c>
+      <c r="Q29">
+        <v>18.2</v>
+      </c>
+      <c r="R29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>19140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30">
+        <v>143406</v>
+      </c>
+      <c r="D30">
+        <v>160</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30" s="4">
+        <f>(G30/C30)*1000</f>
+        <v>0.67640126633474185</v>
+      </c>
+      <c r="G30">
+        <v>97</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>66</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>31</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>35</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>226</v>
+      </c>
+      <c r="P30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q30">
+        <v>24.4</v>
+      </c>
+      <c r="R30">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>15660</v>
+      </c>
+      <c r="B31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31">
+        <v>56790</v>
+      </c>
+      <c r="D31">
+        <v>116</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31" s="4">
+        <f>(G31/C31)*1000</f>
+        <v>0.9156541644655749</v>
+      </c>
+      <c r="G31">
+        <v>52</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>35</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>17</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>18</v>
+      </c>
+      <c r="N31">
+        <v>-5</v>
+      </c>
+      <c r="O31" t="s">
+        <v>226</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>31.7</v>
+      </c>
+      <c r="R31">
+        <v>-8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20060</v>
+      </c>
+      <c r="B32" t="s">
         <v>206</v>
       </c>
-      <c r="C20">
-        <v>69774</v>
-      </c>
-      <c r="D20">
-        <v>159</v>
-      </c>
-      <c r="E20">
+      <c r="C32">
+        <v>51226</v>
+      </c>
+      <c r="D32">
+        <v>161</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4">
+        <f>(G32/C32)*1000</f>
+        <v>1.4250575879436225</v>
+      </c>
+      <c r="G32">
+        <v>73</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>45</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>28</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>17</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32" t="s">
+        <v>226</v>
+      </c>
+      <c r="P32">
+        <v>3.1</v>
+      </c>
+      <c r="Q32">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="R32">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>45580</v>
+      </c>
+      <c r="B33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33">
+        <v>26216</v>
+      </c>
+      <c r="D33">
+        <v>240</v>
+      </c>
+      <c r="E33">
+        <v>21</v>
+      </c>
+      <c r="F33" s="4">
+        <f>(G33/C33)*1000</f>
+        <v>2.4794018919743666</v>
+      </c>
+      <c r="G33">
+        <v>65</v>
+      </c>
+      <c r="H33">
+        <v>11</v>
+      </c>
+      <c r="I33">
+        <v>37</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>28</v>
+      </c>
+      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>9</v>
+      </c>
+      <c r="N33">
+        <v>-3</v>
+      </c>
+      <c r="O33">
+        <v>62.8</v>
+      </c>
+      <c r="P33">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q33">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="R33">
+        <v>-11.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20140</v>
+      </c>
+      <c r="B34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C34">
+        <v>63925</v>
+      </c>
+      <c r="D34">
+        <v>133</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4">
+        <f>(G34/C34)*1000</f>
+        <v>0.84473992960500588</v>
+      </c>
+      <c r="G34">
+        <v>54</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>38</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>16</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>22</v>
+      </c>
+      <c r="N34">
+        <v>-1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>226</v>
+      </c>
+      <c r="P34">
+        <v>2.1</v>
+      </c>
+      <c r="Q34">
+        <v>34.4</v>
+      </c>
+      <c r="R34">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>12460</v>
+      </c>
+      <c r="B35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35">
+        <v>26833</v>
+      </c>
+      <c r="D35">
+        <v>94</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <f>(G35/C35)*1000</f>
+        <v>1.6397719226325793</v>
+      </c>
+      <c r="G35">
+        <v>44</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>30</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>14</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>16</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>226</v>
+      </c>
+      <c r="P35">
+        <v>3.5</v>
+      </c>
+      <c r="Q35">
+        <v>59.6</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>45700</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36">
+        <v>40510</v>
+      </c>
+      <c r="D36">
+        <v>132</v>
+      </c>
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F20">
-        <v>59</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>21</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>38</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>-17</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>228</v>
-      </c>
-      <c r="O20">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P20">
-        <v>-24.4</v>
-      </c>
-      <c r="Q20">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19140</v>
-      </c>
-      <c r="B21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21">
-        <v>143406</v>
-      </c>
-      <c r="D21">
-        <v>160</v>
-      </c>
-      <c r="E21">
+      <c r="F36" s="4">
+        <f>(G36/C36)*1000</f>
+        <v>0.98741051592199458</v>
+      </c>
+      <c r="G36">
+        <v>40</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>35</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
+      <c r="N36">
+        <v>-2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>226</v>
+      </c>
+      <c r="P36">
+        <v>3.3</v>
+      </c>
+      <c r="Q36">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="R36">
+        <v>-4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>23580</v>
+      </c>
+      <c r="B37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37">
+        <v>195961</v>
+      </c>
+      <c r="D37">
+        <v>1776</v>
+      </c>
+      <c r="E37">
+        <v>23</v>
+      </c>
+      <c r="F37" s="4">
+        <f>(G37/C37)*1000</f>
+        <v>5.4806823806777878</v>
+      </c>
+      <c r="G37">
+        <v>1074</v>
+      </c>
+      <c r="H37">
+        <v>14</v>
+      </c>
+      <c r="I37">
+        <v>678</v>
+      </c>
+      <c r="J37">
+        <v>11</v>
+      </c>
+      <c r="K37">
+        <v>396</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>282</v>
+      </c>
+      <c r="N37">
+        <v>8</v>
+      </c>
+      <c r="O37">
+        <v>540.5</v>
+      </c>
+      <c r="P37">
+        <v>9.1</v>
+      </c>
+      <c r="Q37">
+        <v>143.9</v>
+      </c>
+      <c r="R37">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>18460</v>
+      </c>
+      <c r="B38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38">
+        <v>44289</v>
+      </c>
+      <c r="D38">
+        <v>355</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38" s="4">
+        <f>(G38/C38)*1000</f>
+        <v>5.7802163065320959</v>
+      </c>
+      <c r="G38">
+        <v>256</v>
+      </c>
+      <c r="H38">
         <v>7</v>
       </c>
-      <c r="F21">
-        <v>97</v>
-      </c>
-      <c r="G21">
+      <c r="I38">
+        <v>162</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>94</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>68</v>
+      </c>
+      <c r="N38">
         <v>3</v>
       </c>
-      <c r="H21">
-        <v>66</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>31</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>35</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s">
-        <v>228</v>
-      </c>
-      <c r="O21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P21">
-        <v>24.4</v>
-      </c>
-      <c r="Q21">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20060</v>
-      </c>
-      <c r="B22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22">
-        <v>51226</v>
-      </c>
-      <c r="D22">
-        <v>161</v>
-      </c>
-      <c r="E22">
+      <c r="O38">
+        <v>44.7</v>
+      </c>
+      <c r="P38">
         <v>8</v>
       </c>
-      <c r="F22">
-        <v>73</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <v>45</v>
-      </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="J22">
-        <v>28</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>17</v>
-      </c>
-      <c r="M22">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>228</v>
-      </c>
-      <c r="O22">
-        <v>3.1</v>
-      </c>
-      <c r="P22">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="Q22">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>18380</v>
-      </c>
-      <c r="B23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23">
-        <v>22846</v>
-      </c>
-      <c r="D23">
-        <v>170</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>45</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>13</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>32</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>-19</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>228</v>
-      </c>
-      <c r="O23">
-        <v>7.4</v>
-      </c>
-      <c r="P23">
-        <v>-83.2</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>48180</v>
-      </c>
-      <c r="B24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24">
-        <v>54763</v>
-      </c>
-      <c r="D24">
-        <v>186</v>
-      </c>
-      <c r="E24">
-        <v>15</v>
-      </c>
-      <c r="F24">
-        <v>47</v>
-      </c>
-      <c r="G24">
-        <v>7</v>
-      </c>
-      <c r="H24">
-        <v>20</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>27</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>-7</v>
-      </c>
-      <c r="M24">
-        <v>3</v>
-      </c>
-      <c r="N24" t="s">
-        <v>228</v>
-      </c>
-      <c r="O24">
-        <v>3.4</v>
-      </c>
-      <c r="P24">
-        <v>-12.8</v>
-      </c>
-      <c r="Q24">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>34220</v>
-      </c>
-      <c r="B25" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25">
-        <v>45606</v>
-      </c>
-      <c r="D25">
-        <v>192</v>
-      </c>
-      <c r="E25">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>47</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>20</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25">
-        <v>27</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>-7</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>228</v>
-      </c>
-      <c r="O25">
-        <v>4.2</v>
-      </c>
-      <c r="P25">
-        <v>-15.3</v>
-      </c>
-      <c r="Q25">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>45620</v>
-      </c>
-      <c r="B26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26">
-        <v>44730</v>
-      </c>
-      <c r="D26">
-        <v>196</v>
-      </c>
-      <c r="E26">
-        <v>20</v>
-      </c>
-      <c r="F26">
-        <v>70</v>
-      </c>
-      <c r="G26">
-        <v>7</v>
-      </c>
-      <c r="H26">
-        <v>34</v>
-      </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
-      <c r="J26">
-        <v>36</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>-2</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>228</v>
-      </c>
-      <c r="O26">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="P26">
-        <v>-4.5</v>
-      </c>
-      <c r="Q26">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>46660</v>
-      </c>
-      <c r="B27" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27">
-        <v>144564</v>
-      </c>
-      <c r="D27">
-        <v>238</v>
-      </c>
-      <c r="E27">
-        <v>12</v>
-      </c>
-      <c r="F27">
-        <v>103</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>34</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>69</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>-35</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>228</v>
-      </c>
-      <c r="O27">
-        <v>1.6</v>
-      </c>
-      <c r="P27">
-        <v>-24.2</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>45580</v>
-      </c>
-      <c r="B28" t="s">
-        <v>214</v>
-      </c>
-      <c r="C28">
-        <v>26216</v>
-      </c>
-      <c r="D28">
-        <v>240</v>
-      </c>
-      <c r="E28">
-        <v>21</v>
-      </c>
-      <c r="F28">
-        <v>65</v>
-      </c>
-      <c r="G28">
-        <v>11</v>
-      </c>
-      <c r="H28">
-        <v>37</v>
-      </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-      <c r="J28">
-        <v>28</v>
-      </c>
-      <c r="K28">
-        <v>7</v>
-      </c>
-      <c r="L28">
-        <v>9</v>
-      </c>
-      <c r="M28">
-        <v>-3</v>
-      </c>
-      <c r="N28">
-        <v>62.8</v>
-      </c>
-      <c r="O28">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="P28">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="Q28">
-        <v>-11.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>12020</v>
-      </c>
-      <c r="B29" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29">
-        <v>205303</v>
-      </c>
-      <c r="D29">
-        <v>302</v>
-      </c>
-      <c r="E29">
-        <v>17</v>
-      </c>
-      <c r="F29">
-        <v>88</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>35</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>53</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>-18</v>
-      </c>
-      <c r="M29">
-        <v>-1</v>
-      </c>
-      <c r="N29" t="s">
-        <v>228</v>
-      </c>
-      <c r="O29">
-        <v>1.5</v>
-      </c>
-      <c r="P29">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="Q29">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>33300</v>
-      </c>
-      <c r="B30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30">
-        <v>53821</v>
-      </c>
-      <c r="D30">
-        <v>303</v>
-      </c>
-      <c r="E30">
-        <v>11</v>
-      </c>
-      <c r="F30">
-        <v>163</v>
-      </c>
-      <c r="G30">
-        <v>7</v>
-      </c>
-      <c r="H30">
-        <v>85</v>
-      </c>
-      <c r="I30">
-        <v>5</v>
-      </c>
-      <c r="J30">
-        <v>78</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>7</v>
-      </c>
-      <c r="M30">
-        <v>3</v>
-      </c>
-      <c r="N30">
-        <v>75.8</v>
-      </c>
-      <c r="O30">
-        <v>5.6</v>
-      </c>
-      <c r="P30">
-        <v>13</v>
-      </c>
-      <c r="Q30">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>47580</v>
-      </c>
-      <c r="B31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C31">
-        <v>178648</v>
-      </c>
-      <c r="D31">
-        <v>320</v>
-      </c>
-      <c r="E31">
-        <v>16</v>
-      </c>
-      <c r="F31">
-        <v>103</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>66</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>37</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>29</v>
-      </c>
-      <c r="M31">
-        <v>-1</v>
-      </c>
-      <c r="N31">
-        <v>103.2</v>
-      </c>
-      <c r="O31">
-        <v>1.8</v>
-      </c>
-      <c r="P31">
-        <v>16.2</v>
-      </c>
-      <c r="Q31">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>42340</v>
-      </c>
-      <c r="B32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32">
-        <v>381623</v>
-      </c>
-      <c r="D32">
-        <v>337</v>
-      </c>
-      <c r="E32">
-        <v>15</v>
-      </c>
-      <c r="F32">
-        <v>92</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
-      </c>
-      <c r="H32">
-        <v>47</v>
-      </c>
-      <c r="I32">
-        <v>5</v>
-      </c>
-      <c r="J32">
-        <v>45</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="M32">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s">
-        <v>228</v>
-      </c>
-      <c r="O32">
-        <v>0.9</v>
-      </c>
-      <c r="P32">
-        <v>0.5</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>18460</v>
-      </c>
-      <c r="B33" t="s">
-        <v>219</v>
-      </c>
-      <c r="C33">
-        <v>44289</v>
-      </c>
-      <c r="D33">
-        <v>355</v>
-      </c>
-      <c r="E33">
-        <v>9</v>
-      </c>
-      <c r="F33">
-        <v>256</v>
-      </c>
-      <c r="G33">
-        <v>7</v>
-      </c>
-      <c r="H33">
-        <v>162</v>
-      </c>
-      <c r="I33">
-        <v>5</v>
-      </c>
-      <c r="J33">
-        <v>94</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>68</v>
-      </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-      <c r="N33">
-        <v>44.7</v>
-      </c>
-      <c r="O33">
-        <v>8</v>
-      </c>
-      <c r="P33">
+      <c r="Q38">
         <v>153.5</v>
       </c>
-      <c r="Q33">
+      <c r="R38">
         <v>6.8</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>11140</v>
-      </c>
-      <c r="B34" t="s">
-        <v>220</v>
-      </c>
-      <c r="C34">
-        <v>35563</v>
-      </c>
-      <c r="D34">
-        <v>407</v>
-      </c>
-      <c r="E34">
-        <v>30</v>
-      </c>
-      <c r="F34">
-        <v>59</v>
-      </c>
-      <c r="G34">
-        <v>11</v>
-      </c>
-      <c r="H34">
-        <v>29</v>
-      </c>
-      <c r="I34">
-        <v>5</v>
-      </c>
-      <c r="J34">
-        <v>30</v>
-      </c>
-      <c r="K34">
-        <v>6</v>
-      </c>
-      <c r="L34">
-        <v>-1</v>
-      </c>
-      <c r="M34">
-        <v>-1</v>
-      </c>
-      <c r="N34">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="O34">
-        <v>11.4</v>
-      </c>
-      <c r="P34">
-        <v>-2.8</v>
-      </c>
-      <c r="Q34">
-        <v>-2.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>31420</v>
-      </c>
-      <c r="B35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35">
-        <v>229676</v>
-      </c>
-      <c r="D35">
-        <v>426</v>
-      </c>
-      <c r="E35">
-        <v>15</v>
-      </c>
-      <c r="F35">
-        <v>170</v>
-      </c>
-      <c r="G35">
-        <v>13</v>
-      </c>
-      <c r="H35">
-        <v>101</v>
-      </c>
-      <c r="I35">
-        <v>7</v>
-      </c>
-      <c r="J35">
-        <v>69</v>
-      </c>
-      <c r="K35">
-        <v>6</v>
-      </c>
-      <c r="L35">
-        <v>32</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>81.7</v>
-      </c>
-      <c r="O35">
-        <v>1.9</v>
-      </c>
-      <c r="P35">
-        <v>13.9</v>
-      </c>
-      <c r="Q35">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>17980</v>
-      </c>
-      <c r="B36" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36">
-        <v>261931</v>
-      </c>
-      <c r="D36">
-        <v>496</v>
-      </c>
-      <c r="E36">
-        <v>11</v>
-      </c>
-      <c r="F36">
-        <v>151</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="H36">
-        <v>68</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36">
-        <v>83</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>-15</v>
-      </c>
-      <c r="M36">
-        <v>3</v>
-      </c>
-      <c r="N36">
-        <v>27.7</v>
-      </c>
-      <c r="O36">
-        <v>1.9</v>
-      </c>
-      <c r="P36">
-        <v>-5.7</v>
-      </c>
-      <c r="Q36">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>12260</v>
-      </c>
-      <c r="B37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37">
-        <v>400605</v>
-      </c>
-      <c r="D37">
-        <v>736</v>
-      </c>
-      <c r="E37">
-        <v>26</v>
-      </c>
-      <c r="F37">
-        <v>243</v>
-      </c>
-      <c r="G37">
-        <v>7</v>
-      </c>
-      <c r="H37">
-        <v>87</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37">
-        <v>156</v>
-      </c>
-      <c r="K37">
-        <v>4</v>
-      </c>
-      <c r="L37">
-        <v>-69</v>
-      </c>
-      <c r="M37">
-        <v>-1</v>
-      </c>
-      <c r="N37">
-        <v>24.5</v>
-      </c>
-      <c r="O37">
-        <v>1.8</v>
-      </c>
-      <c r="P37">
-        <v>-17.2</v>
-      </c>
-      <c r="Q37">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>23580</v>
-      </c>
-      <c r="B38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38">
-        <v>195961</v>
-      </c>
-      <c r="D38">
-        <v>1776</v>
-      </c>
-      <c r="E38">
-        <v>23</v>
-      </c>
-      <c r="F38">
-        <v>1074</v>
-      </c>
-      <c r="G38">
-        <v>14</v>
-      </c>
-      <c r="H38">
-        <v>678</v>
-      </c>
-      <c r="I38">
-        <v>11</v>
-      </c>
-      <c r="J38">
-        <v>396</v>
-      </c>
-      <c r="K38">
-        <v>3</v>
-      </c>
-      <c r="L38">
-        <v>282</v>
-      </c>
-      <c r="M38">
-        <v>8</v>
-      </c>
-      <c r="N38">
-        <v>540.5</v>
-      </c>
-      <c r="O38">
-        <v>9.1</v>
-      </c>
-      <c r="P38">
-        <v>143.9</v>
-      </c>
-      <c r="Q38">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>10500</v>
-      </c>
-      <c r="B39" t="s">
-        <v>225</v>
-      </c>
-      <c r="C39">
-        <v>149912</v>
-      </c>
-      <c r="D39">
-        <v>2228</v>
-      </c>
-      <c r="E39">
-        <v>177</v>
-      </c>
-      <c r="F39">
-        <v>238</v>
-      </c>
-      <c r="G39">
-        <v>38</v>
-      </c>
-      <c r="H39">
-        <v>131</v>
-      </c>
-      <c r="I39">
-        <v>18</v>
-      </c>
-      <c r="J39">
-        <v>107</v>
-      </c>
-      <c r="K39">
-        <v>20</v>
-      </c>
-      <c r="L39">
-        <v>24</v>
-      </c>
-      <c r="M39">
-        <v>-2</v>
-      </c>
-      <c r="N39">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="O39">
-        <v>14.9</v>
-      </c>
-      <c r="P39">
-        <v>16</v>
-      </c>
-      <c r="Q39">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>12060</v>
-      </c>
-      <c r="B40" t="s">
-        <v>226</v>
-      </c>
-      <c r="C40">
-        <v>5779463</v>
-      </c>
-      <c r="D40">
-        <v>14499</v>
-      </c>
-      <c r="E40">
-        <v>560</v>
-      </c>
-      <c r="F40">
-        <v>4813</v>
-      </c>
-      <c r="G40">
-        <v>221</v>
-      </c>
-      <c r="H40">
-        <v>2582</v>
-      </c>
-      <c r="I40">
-        <v>120</v>
-      </c>
-      <c r="J40">
-        <v>2231</v>
-      </c>
-      <c r="K40">
-        <v>101</v>
-      </c>
-      <c r="L40">
-        <v>351</v>
-      </c>
-      <c r="M40">
-        <v>19</v>
-      </c>
-      <c r="N40">
-        <v>24.1</v>
-      </c>
-      <c r="O40">
-        <v>2.5</v>
-      </c>
-      <c r="P40">
-        <v>6.1</v>
-      </c>
-      <c r="Q40">
-        <v>0.3</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:Q41" xr:uid="{3CD5C27C-F251-D447-9DAC-2F8071E0FB56}"/>
+  <autoFilter ref="A1:R39" xr:uid="{3CD5C27C-F251-D447-9DAC-2F8071E0FB56}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R38">
+    <sortCondition ref="Q2:Q38"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3851,7 +3937,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C2">
         <v>10297484</v>
@@ -3969,7 +4055,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
         <v>176</v>
@@ -4022,7 +4108,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s">
         <v>177</v>
@@ -4075,7 +4161,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B4" t="s">
         <v>178</v>
@@ -4114,7 +4200,7 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O4">
         <v>0.8</v>
@@ -4128,7 +4214,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B5" t="s">
         <v>179</v>
@@ -4181,7 +4267,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B6" t="s">
         <v>180</v>
@@ -4234,7 +4320,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B7" t="s">
         <v>181</v>
@@ -4287,7 +4373,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B8" t="s">
         <v>182</v>
@@ -4340,7 +4426,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B9" t="s">
         <v>183</v>
@@ -4393,7 +4479,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B10" t="s">
         <v>184</v>
@@ -4446,7 +4532,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B11" t="s">
         <v>185</v>
@@ -4499,7 +4585,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B12" t="s">
         <v>186</v>
@@ -4552,7 +4638,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B13" t="s">
         <v>187</v>
@@ -4612,11 +4698,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B54D938-FE86-2944-A018-78720695811D}">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="20.5" customWidth="1"/>
+    <col min="15" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -4671,15 +4764,15 @@
         <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -4738,7 +4831,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -4797,7 +4890,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -4856,7 +4949,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -4915,7 +5008,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -4974,7 +5067,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -5033,7 +5126,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -5092,7 +5185,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -5151,7 +5244,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -5210,7 +5303,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -5269,7 +5362,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -5328,7 +5421,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -5387,7 +5480,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -5446,7 +5539,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -5505,7 +5598,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -5564,7 +5657,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -5623,7 +5716,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -5682,7 +5775,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -5741,7 +5834,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -5800,7 +5893,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
@@ -5859,7 +5952,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
@@ -5918,7 +6011,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
@@ -5977,7 +6070,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
@@ -6036,7 +6129,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -6095,7 +6188,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
@@ -6154,7 +6247,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -6213,7 +6306,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
@@ -6272,7 +6365,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
@@ -6331,7 +6424,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
@@ -6390,7 +6483,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
@@ -6449,7 +6542,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s">
         <v>47</v>
@@ -6508,7 +6601,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s">
         <v>48</v>
@@ -6567,7 +6660,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s">
         <v>49</v>
@@ -6626,7 +6719,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B35" t="s">
         <v>50</v>
@@ -6685,7 +6778,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s">
         <v>51</v>
@@ -6744,7 +6837,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B37" t="s">
         <v>52</v>
@@ -6803,7 +6896,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -6862,7 +6955,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B39" t="s">
         <v>54</v>
@@ -6921,7 +7014,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s">
         <v>55</v>
@@ -6980,7 +7073,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s">
         <v>56</v>
@@ -7039,7 +7132,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
@@ -7098,7 +7191,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s">
         <v>58</v>
@@ -7157,7 +7250,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s">
         <v>59</v>
@@ -7216,7 +7309,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B45" t="s">
         <v>60</v>
@@ -7275,7 +7368,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B46" t="s">
         <v>61</v>
@@ -7334,7 +7427,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s">
         <v>62</v>
@@ -7393,7 +7486,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B48" t="s">
         <v>63</v>
@@ -7452,7 +7545,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B49" t="s">
         <v>64</v>
@@ -7511,7 +7604,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B50" t="s">
         <v>65</v>
@@ -7570,7 +7663,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s">
         <v>66</v>
@@ -7629,7 +7722,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B52" t="s">
         <v>67</v>
@@ -7688,7 +7781,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B53" t="s">
         <v>68</v>
@@ -7747,7 +7840,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B54" t="s">
         <v>69</v>
@@ -7806,7 +7899,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B55" t="s">
         <v>70</v>
@@ -7865,7 +7958,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s">
         <v>71</v>
@@ -7924,7 +8017,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s">
         <v>72</v>
@@ -7983,7 +8076,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
@@ -8042,7 +8135,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -8101,7 +8194,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s">
         <v>75</v>
@@ -8160,7 +8253,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s">
         <v>76</v>
@@ -8219,7 +8312,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s">
         <v>77</v>
@@ -8278,7 +8371,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B63" t="s">
         <v>78</v>
@@ -8337,7 +8430,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s">
         <v>79</v>
@@ -8396,7 +8489,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s">
         <v>80</v>
@@ -8455,7 +8548,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s">
         <v>81</v>
@@ -8514,7 +8607,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B67" t="s">
         <v>82</v>
@@ -8573,7 +8666,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B68" t="s">
         <v>83</v>
@@ -8632,7 +8725,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s">
         <v>84</v>
@@ -8691,7 +8784,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s">
         <v>85</v>
@@ -8750,7 +8843,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B71" t="s">
         <v>86</v>
@@ -8809,7 +8902,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s">
         <v>87</v>
@@ -8868,7 +8961,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B73" t="s">
         <v>88</v>
@@ -8927,7 +9020,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s">
         <v>89</v>
@@ -8986,7 +9079,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B75" t="s">
         <v>90</v>
@@ -9045,7 +9138,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s">
         <v>91</v>
@@ -9104,7 +9197,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s">
         <v>92</v>
@@ -9163,7 +9256,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B78" t="s">
         <v>93</v>
@@ -9222,7 +9315,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B79" t="s">
         <v>94</v>
@@ -9281,7 +9374,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B80" t="s">
         <v>95</v>
@@ -9340,7 +9433,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s">
         <v>96</v>
@@ -9399,7 +9492,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B82" t="s">
         <v>97</v>
@@ -9458,7 +9551,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B83" t="s">
         <v>98</v>
@@ -9517,7 +9610,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B84" t="s">
         <v>99</v>
@@ -9576,7 +9669,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B85" t="s">
         <v>100</v>
@@ -9635,7 +9728,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s">
         <v>101</v>
@@ -9694,7 +9787,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B87" t="s">
         <v>102</v>
@@ -9753,7 +9846,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B88" t="s">
         <v>103</v>
@@ -9812,7 +9905,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s">
         <v>104</v>
@@ -9871,7 +9964,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B90" t="s">
         <v>105</v>
@@ -9930,7 +10023,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B91" t="s">
         <v>106</v>
@@ -9989,7 +10082,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B92" t="s">
         <v>107</v>
@@ -10048,7 +10141,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B93" t="s">
         <v>108</v>
@@ -10107,7 +10200,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B94" t="s">
         <v>109</v>
@@ -10166,7 +10259,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B95" t="s">
         <v>110</v>
@@ -10225,7 +10318,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B96" t="s">
         <v>111</v>
@@ -10284,7 +10377,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B97" t="s">
         <v>112</v>
@@ -10343,7 +10436,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B98" t="s">
         <v>113</v>
@@ -10402,7 +10495,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B99" t="s">
         <v>114</v>
@@ -10461,7 +10554,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s">
         <v>115</v>
@@ -10520,7 +10613,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B101" t="s">
         <v>116</v>
@@ -10579,7 +10672,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B102" t="s">
         <v>117</v>
@@ -10638,7 +10731,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B103" t="s">
         <v>118</v>
@@ -10697,7 +10790,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B104" t="s">
         <v>119</v>
@@ -10756,7 +10849,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s">
         <v>120</v>
@@ -10815,7 +10908,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B106" t="s">
         <v>121</v>
@@ -10874,7 +10967,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B107" t="s">
         <v>122</v>
@@ -10933,7 +11026,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B108" t="s">
         <v>123</v>
@@ -10992,7 +11085,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
@@ -11051,7 +11144,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B110" t="s">
         <v>125</v>
@@ -11110,7 +11203,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B111" t="s">
         <v>126</v>
@@ -11169,7 +11262,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B112" t="s">
         <v>127</v>
@@ -11228,7 +11321,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B113" t="s">
         <v>128</v>
@@ -11287,7 +11380,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B114" t="s">
         <v>129</v>
@@ -11346,7 +11439,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B115" t="s">
         <v>130</v>
@@ -11405,7 +11498,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B116" t="s">
         <v>131</v>
@@ -11464,7 +11557,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B117" t="s">
         <v>132</v>
@@ -11523,7 +11616,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B118" t="s">
         <v>133</v>
@@ -11582,7 +11675,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B119" t="s">
         <v>134</v>
@@ -11641,7 +11734,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B120" t="s">
         <v>135</v>
@@ -11700,7 +11793,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B121" t="s">
         <v>136</v>
@@ -11759,7 +11852,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B122" t="s">
         <v>137</v>
@@ -11818,7 +11911,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B123" t="s">
         <v>138</v>
@@ -11877,7 +11970,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B124" t="s">
         <v>139</v>
@@ -11936,7 +12029,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B125" t="s">
         <v>140</v>
@@ -11995,7 +12088,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B126" t="s">
         <v>141</v>
@@ -12054,7 +12147,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B127" t="s">
         <v>142</v>
@@ -12113,7 +12206,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B128" t="s">
         <v>143</v>
@@ -12172,7 +12265,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B129" t="s">
         <v>144</v>
@@ -12231,7 +12324,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B130" t="s">
         <v>145</v>
@@ -12290,7 +12383,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B131" t="s">
         <v>146</v>
@@ -12349,7 +12442,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B132" t="s">
         <v>147</v>
@@ -12408,7 +12501,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B133" t="s">
         <v>148</v>
@@ -12467,7 +12560,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B134" t="s">
         <v>149</v>
@@ -12526,7 +12619,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B135" t="s">
         <v>150</v>
@@ -12585,7 +12678,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B136" t="s">
         <v>151</v>
@@ -12644,7 +12737,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B137" t="s">
         <v>152</v>
@@ -12703,7 +12796,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B138" t="s">
         <v>153</v>
@@ -12762,7 +12855,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B139" t="s">
         <v>154</v>
@@ -12821,7 +12914,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B140" t="s">
         <v>155</v>
@@ -12880,7 +12973,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B141" t="s">
         <v>156</v>
@@ -12939,7 +13032,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B142" t="s">
         <v>157</v>
@@ -12998,7 +13091,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B143" t="s">
         <v>158</v>
@@ -13057,7 +13150,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B144" t="s">
         <v>159</v>
@@ -13116,7 +13209,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B145" t="s">
         <v>160</v>
@@ -13175,7 +13268,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B146" t="s">
         <v>161</v>
@@ -13234,7 +13327,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B147" t="s">
         <v>162</v>
@@ -13293,7 +13386,7 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B148" t="s">
         <v>163</v>
@@ -13352,7 +13445,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B149" t="s">
         <v>164</v>
@@ -13411,7 +13504,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B150" t="s">
         <v>165</v>
@@ -13470,7 +13563,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B151" t="s">
         <v>166</v>
@@ -13529,7 +13622,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B152" t="s">
         <v>167</v>
@@ -13588,7 +13681,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B153" t="s">
         <v>168</v>
@@ -13647,7 +13740,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B154" t="s">
         <v>169</v>
@@ -13706,7 +13799,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B155" t="s">
         <v>170</v>
@@ -13765,7 +13858,7 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B156" t="s">
         <v>171</v>
@@ -13824,7 +13917,7 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B157" t="s">
         <v>172</v>
@@ -13883,7 +13976,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B158" t="s">
         <v>173</v>
@@ -13942,7 +14035,7 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B159" t="s">
         <v>174</v>
@@ -14001,7 +14094,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B160" t="s">
         <v>175</v>
